--- a/bin/new管道材料等级索引表.xlsx
+++ b/bin/new管道材料等级索引表.xlsx
@@ -163,7 +163,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>2016/08/22</t>
+    <t>2016/08/23</t>
   </si>
   <si>
     <t>AADbvzAApAAAAFdAAA</t>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="n">
-        <v>10022</v>
+        <v>2633</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
         <v>-1</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="n">
-        <v>10023</v>
+        <v>2634</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>58</v>
       </c>
       <c r="S3" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
         <v>-1</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="n">
-        <v>10024</v>
+        <v>2635</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -2189,7 +2189,7 @@
         <v>58</v>
       </c>
       <c r="S4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="n">
-        <v>10025</v>
+        <v>2636</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -2259,7 +2259,7 @@
         <v>66</v>
       </c>
       <c r="S5" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
         <v>-1</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="n">
-        <v>10026</v>
+        <v>2637</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -2329,7 +2329,7 @@
         <v>58</v>
       </c>
       <c r="S6" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
         <v>-1</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="n">
-        <v>10027</v>
+        <v>2638</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="n">
-        <v>10028</v>
+        <v>2639</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -2464,7 +2464,7 @@
         <v>58</v>
       </c>
       <c r="S8" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
         <v>-1</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="n">
-        <v>10029</v>
+        <v>2640</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
@@ -2532,7 +2532,7 @@
         <v>58</v>
       </c>
       <c r="S9" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
         <v>-1</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="n">
-        <v>10030</v>
+        <v>2641</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
@@ -2600,7 +2600,7 @@
         <v>58</v>
       </c>
       <c r="S10" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
         <v>-1</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="n">
-        <v>10031</v>
+        <v>2642</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -2665,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T11" t="n">
         <v>-1</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="n">
-        <v>10032</v>
+        <v>2643</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="n">
-        <v>10033</v>
+        <v>2644</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9</v>
@@ -2797,7 +2797,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
         <v>-1</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="n">
-        <v>10034</v>
+        <v>2645</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9</v>
@@ -2864,7 +2864,7 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T14" t="n">
         <v>-1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="n">
-        <v>10035</v>
+        <v>2646</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T15" t="n">
         <v>-1</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="n">
-        <v>10036</v>
+        <v>2647</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -3000,7 +3000,7 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="n">
-        <v>10037</v>
+        <v>2648</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T17" t="n">
         <v>-1</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="n">
-        <v>10038</v>
+        <v>2649</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T18" t="n">
         <v>-1</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="n">
-        <v>10039</v>
+        <v>2650</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -3201,7 +3201,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T19" t="n">
         <v>-1</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="n">
-        <v>10040</v>
+        <v>2651</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
@@ -3269,7 +3269,7 @@
         <v>112</v>
       </c>
       <c r="S20" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="n">
-        <v>10041</v>
+        <v>2652</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -3336,7 +3336,7 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
         <v>-1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="n">
-        <v>10042</v>
+        <v>2653</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>13</v>
@@ -3403,7 +3403,7 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T22" t="n">
         <v>-1</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="n">
-        <v>10043</v>
+        <v>2654</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14</v>
@@ -3468,7 +3468,7 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T23" t="n">
         <v>-1</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="n">
-        <v>10044</v>
+        <v>2655</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>14</v>
@@ -3535,7 +3535,7 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
         <v>-1</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="n">
-        <v>10045</v>
+        <v>2656</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
         <v>-1</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="n">
-        <v>10046</v>
+        <v>2657</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T26" t="n">
         <v>-1</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="1" t="n">
-        <v>10047</v>
+        <v>2658</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T27" t="n">
         <v>-1</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="1" t="n">
-        <v>10048</v>
+        <v>2659</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>16</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T28" t="n">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="1" t="n">
-        <v>10049</v>
+        <v>2660</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17</v>
@@ -3864,7 +3864,7 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="1" t="n">
-        <v>10050</v>
+        <v>2661</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18</v>
@@ -3934,7 +3934,7 @@
         <v>58</v>
       </c>
       <c r="S30" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T30" t="n">
         <v>-1</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="1" t="n">
-        <v>10051</v>
+        <v>2662</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19</v>
@@ -4002,7 +4002,7 @@
         <v>58</v>
       </c>
       <c r="S31" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
         <v>-1</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="1" t="n">
-        <v>10052</v>
+        <v>2663</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T32" t="n">
         <v>-1</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="1" t="n">
-        <v>10053</v>
+        <v>2664</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T33" t="n">
         <v>-1</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="1" t="n">
-        <v>10054</v>
+        <v>2665</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>21</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="1" t="n">
-        <v>10055</v>
+        <v>2666</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -4264,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
         <v>-1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="1" t="n">
-        <v>10056</v>
+        <v>2667</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>23</v>
@@ -4331,7 +4331,7 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="1" t="n">
-        <v>10057</v>
+        <v>2668</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>23</v>
@@ -4398,7 +4398,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
         <v>-1</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="1" t="n">
-        <v>10058</v>
+        <v>2669</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -4463,7 +4463,7 @@
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T38" t="n">
         <v>-1</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="1" t="n">
-        <v>10059</v>
+        <v>2670</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>25</v>
@@ -4528,7 +4528,7 @@
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="1" t="n">
-        <v>10060</v>
+        <v>2671</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>26</v>
@@ -4593,7 +4593,7 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T40" t="n">
         <v>-1</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="1" t="n">
-        <v>10061</v>
+        <v>2672</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>26</v>
@@ -4660,7 +4660,7 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
         <v>-1</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="1" t="n">
-        <v>10062</v>
+        <v>2673</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>27</v>
@@ -4728,7 +4728,7 @@
         <v>58</v>
       </c>
       <c r="S42" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T42" t="n">
         <v>-1</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="1" t="n">
-        <v>10063</v>
+        <v>2674</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>27</v>
@@ -4798,7 +4798,7 @@
         <v>58</v>
       </c>
       <c r="S43" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T43" t="n">
         <v>-1</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="1" t="n">
-        <v>10064</v>
+        <v>2675</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>28</v>
@@ -4865,7 +4865,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T44" t="n">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="1" t="n">
-        <v>10065</v>
+        <v>2676</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>28</v>
@@ -4932,7 +4932,7 @@
         <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
         <v>-1</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="1" t="n">
-        <v>10066</v>
+        <v>2677</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>29</v>
@@ -4997,7 +4997,7 @@
         <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T46" t="n">
         <v>-1</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="1" t="n">
-        <v>10067</v>
+        <v>2678</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>29</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
         <v>-1</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="n">
-        <v>10068</v>
+        <v>2679</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>30</v>
@@ -5129,7 +5129,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T48" t="n">
         <v>-1</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="n">
-        <v>10069</v>
+        <v>2680</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>31</v>
@@ -5194,7 +5194,7 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T49" t="n">
         <v>-1</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="n">
-        <v>10070</v>
+        <v>2681</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>31</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T50" t="n">
         <v>-1</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="1" t="n">
-        <v>10071</v>
+        <v>2682</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>32</v>
@@ -5326,7 +5326,7 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T51" t="n">
         <v>-1</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="1" t="n">
-        <v>10072</v>
+        <v>2683</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>32</v>
@@ -5394,7 +5394,7 @@
         <v>173</v>
       </c>
       <c r="S52" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T52" t="n">
         <v>-1</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="1" t="n">
-        <v>10073</v>
+        <v>2684</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>33</v>
@@ -5459,7 +5459,7 @@
         <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T53" t="n">
         <v>-1</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="1" t="n">
-        <v>10074</v>
+        <v>2685</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>33</v>
@@ -5526,7 +5526,7 @@
         <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T54" t="n">
         <v>-1</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="1" t="n">
-        <v>10075</v>
+        <v>2686</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>33</v>
@@ -5593,7 +5593,7 @@
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T55" t="n">
         <v>-1</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="1" t="n">
-        <v>10076</v>
+        <v>2687</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>34</v>
@@ -5658,7 +5658,7 @@
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T56" t="n">
         <v>-1</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="1" t="n">
-        <v>10077</v>
+        <v>2688</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>35</v>
@@ -5726,7 +5726,7 @@
         <v>112</v>
       </c>
       <c r="S57" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T57" t="n">
         <v>-1</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="1" t="n">
-        <v>10078</v>
+        <v>2689</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>35</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T58" t="n">
         <v>-1</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="1" t="n">
-        <v>10079</v>
+        <v>2690</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>36</v>
@@ -5859,7 +5859,7 @@
         <v>185</v>
       </c>
       <c r="S59" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T59" t="n">
         <v>-1</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="1" t="n">
-        <v>10080</v>
+        <v>2691</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>36</v>
@@ -5927,7 +5927,7 @@
         <v>185</v>
       </c>
       <c r="S60" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T60" t="n">
         <v>-1</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="n">
-        <v>10081</v>
+        <v>2692</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>37</v>
@@ -5997,7 +5997,7 @@
         <v>185</v>
       </c>
       <c r="S61" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T61" t="n">
         <v>-1</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="1" t="n">
-        <v>10082</v>
+        <v>2693</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>37</v>
@@ -6067,7 +6067,7 @@
         <v>185</v>
       </c>
       <c r="S62" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T62" t="n">
         <v>-1</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="1" t="n">
-        <v>10083</v>
+        <v>2694</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>37</v>
@@ -6134,7 +6134,7 @@
         <v>197</v>
       </c>
       <c r="S63" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T63" t="n">
         <v>-1</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="1" t="n">
-        <v>10084</v>
+        <v>2695</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>37</v>
@@ -6204,7 +6204,7 @@
         <v>185</v>
       </c>
       <c r="S64" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T64" t="n">
         <v>-1</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="1" t="n">
-        <v>10085</v>
+        <v>2696</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>38</v>
@@ -6274,7 +6274,7 @@
         <v>185</v>
       </c>
       <c r="S65" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T65" t="n">
         <v>-1</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="1" t="n">
-        <v>10086</v>
+        <v>2697</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>38</v>
@@ -6342,7 +6342,7 @@
         <v>185</v>
       </c>
       <c r="S66" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T66" t="n">
         <v>-1</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="1" t="n">
-        <v>10087</v>
+        <v>2698</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>38</v>
@@ -6412,7 +6412,7 @@
         <v>185</v>
       </c>
       <c r="S67" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T67" t="n">
         <v>-1</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="1" t="n">
-        <v>10088</v>
+        <v>2699</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>38</v>
@@ -6482,7 +6482,7 @@
         <v>185</v>
       </c>
       <c r="S68" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T68" t="n">
         <v>-1</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="1" t="n">
-        <v>10089</v>
+        <v>2700</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>38</v>
@@ -6552,7 +6552,7 @@
         <v>185</v>
       </c>
       <c r="S69" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T69" t="n">
         <v>-1</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="1" t="n">
-        <v>10090</v>
+        <v>2701</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>38</v>
@@ -6622,7 +6622,7 @@
         <v>185</v>
       </c>
       <c r="S70" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T70" t="n">
         <v>-1</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="1" t="n">
-        <v>10091</v>
+        <v>2702</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>38</v>
@@ -6692,7 +6692,7 @@
         <v>185</v>
       </c>
       <c r="S71" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T71" t="n">
         <v>-1</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="1" t="n">
-        <v>10092</v>
+        <v>2703</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>38</v>
@@ -6762,7 +6762,7 @@
         <v>185</v>
       </c>
       <c r="S72" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T72" t="n">
         <v>-1</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="1" t="n">
-        <v>10093</v>
+        <v>2704</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>39</v>
@@ -6827,7 +6827,7 @@
         <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T73" t="n">
         <v>-1</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="n">
-        <v>10094</v>
+        <v>2705</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39</v>
@@ -6894,7 +6894,7 @@
         <v>1.5</v>
       </c>
       <c r="S74" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T74" t="n">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="1" t="n">
-        <v>10095</v>
+        <v>2706</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>39</v>
@@ -6961,7 +6961,7 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T75" t="n">
         <v>-1</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="1" t="n">
-        <v>10096</v>
+        <v>2707</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40</v>
@@ -7026,7 +7026,7 @@
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T76" t="n">
         <v>-1</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="1" t="n">
-        <v>10097</v>
+        <v>2708</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40</v>
@@ -7093,7 +7093,7 @@
         <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T77" t="n">
         <v>-1</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="1" t="n">
-        <v>10098</v>
+        <v>2709</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>41</v>
@@ -7158,7 +7158,7 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T78" t="n">
         <v>-1</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="1" t="n">
-        <v>10099</v>
+        <v>2710</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42</v>
@@ -7228,7 +7228,7 @@
         <v>221</v>
       </c>
       <c r="S79" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T79" t="n">
         <v>-1</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="1" t="n">
-        <v>10100</v>
+        <v>2711</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43</v>
@@ -7296,7 +7296,7 @@
         <v>173</v>
       </c>
       <c r="S80" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T80" t="n">
         <v>-1</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="1" t="n">
-        <v>10101</v>
+        <v>2712</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>44</v>
@@ -7364,7 +7364,7 @@
         <v>226</v>
       </c>
       <c r="S81" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T81" t="n">
         <v>-1</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="1" t="n">
-        <v>10102</v>
+        <v>2713</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45</v>
@@ -7432,7 +7432,7 @@
         <v>226</v>
       </c>
       <c r="S82" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T82" t="n">
         <v>-1</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="1" t="n">
-        <v>10103</v>
+        <v>2714</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T83" t="n">
         <v>-1</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="1" t="n">
-        <v>10104</v>
+        <v>2715</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>46</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T84" t="n">
         <v>-1</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="1" t="n">
-        <v>10105</v>
+        <v>2716</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>46</v>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T85" t="n">
         <v>-1</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="1" t="n">
-        <v>10106</v>
+        <v>2717</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>47</v>
@@ -7692,7 +7692,7 @@
         <v>1.5</v>
       </c>
       <c r="S86" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T86" t="n">
         <v>-1</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="1" t="n">
-        <v>10107</v>
+        <v>2718</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>48</v>
@@ -7757,7 +7757,7 @@
         <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T87" t="n">
         <v>-1</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="n">
-        <v>10108</v>
+        <v>2719</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>48</v>
@@ -7824,7 +7824,7 @@
         <v>1.5</v>
       </c>
       <c r="S88" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T88" t="n">
         <v>-1</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="1" t="n">
-        <v>10109</v>
+        <v>2720</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>48</v>
@@ -7891,7 +7891,7 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="1" t="n">
-        <v>10110</v>
+        <v>2721</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>48</v>
@@ -7959,7 +7959,7 @@
         <v>239</v>
       </c>
       <c r="S90" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T90" t="n">
         <v>-1</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="1" t="n">
-        <v>10111</v>
+        <v>2722</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>49</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T91" t="n">
         <v>-1</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="1" t="n">
-        <v>10112</v>
+        <v>2723</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>49</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T92" t="n">
         <v>-1</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="1" t="n">
-        <v>10113</v>
+        <v>2724</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>49</v>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T93" t="n">
         <v>-1</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="1" t="n">
-        <v>10114</v>
+        <v>2725</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>49</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T94" t="n">
         <v>-1</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="1" t="n">
-        <v>10115</v>
+        <v>2726</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>49</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T95" t="n">
         <v>-1</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="1" t="n">
-        <v>10116</v>
+        <v>2727</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>49</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T96" t="n">
         <v>-1</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="1" t="n">
-        <v>10117</v>
+        <v>2728</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>49</v>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T97" t="n">
         <v>-1</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="1" t="n">
-        <v>10118</v>
+        <v>2729</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>49</v>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T98" t="n">
         <v>-1</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="1" t="n">
-        <v>10119</v>
+        <v>2730</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>49</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T99" t="n">
         <v>-1</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="1" t="n">
-        <v>10120</v>
+        <v>2731</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>49</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T100" t="n">
         <v>-1</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="1" t="n">
-        <v>10121</v>
+        <v>2732</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>50</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T101" t="n">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="1" t="n">
-        <v>10122</v>
+        <v>2733</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>51</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T102" t="n">
         <v>-1</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="1" t="n">
-        <v>10123</v>
+        <v>2734</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>52</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T103" t="n">
         <v>-1</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="1" t="n">
-        <v>10124</v>
+        <v>2735</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>53</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T104" t="n">
         <v>-1</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="1" t="n">
-        <v>10125</v>
+        <v>2736</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>54</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T105" t="n">
         <v>-1</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="1" t="n">
-        <v>10126</v>
+        <v>2737</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>54</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T106" t="n">
         <v>-1</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="1" t="n">
-        <v>10127</v>
+        <v>2738</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>55</v>
@@ -9073,7 +9073,7 @@
         <v>226</v>
       </c>
       <c r="S107" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T107" t="n">
         <v>-1</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="1" t="n">
-        <v>10128</v>
+        <v>2739</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>55</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T108" t="n">
         <v>-1</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="1" t="n">
-        <v>10129</v>
+        <v>2740</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>55</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T109" t="n">
         <v>-1</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="1" t="n">
-        <v>10130</v>
+        <v>2741</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>56</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T110" t="n">
         <v>-1</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="n">
-        <v>10131</v>
+        <v>2742</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>57</v>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T111" t="n">
         <v>-1</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="1" t="n">
-        <v>10132</v>
+        <v>2743</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>57</v>
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T112" t="n">
         <v>-1</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="1" t="n">
-        <v>10133</v>
+        <v>2744</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>58</v>
@@ -9470,7 +9470,7 @@
         <v>226</v>
       </c>
       <c r="S113" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T113" t="n">
         <v>-1</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="1" t="n">
-        <v>10134</v>
+        <v>2745</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>58</v>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T114" t="n">
         <v>-1</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="1" t="n">
-        <v>10135</v>
+        <v>2746</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T115" t="n">
         <v>-1</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="1" t="n">
-        <v>10136</v>
+        <v>2747</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>58</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T116" t="n">
         <v>-1</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="1" t="n">
-        <v>10137</v>
+        <v>2748</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>58</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T117" t="n">
         <v>-1</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="1" t="n">
-        <v>10138</v>
+        <v>2749</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>58</v>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T118" t="n">
         <v>-1</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="1" t="n">
-        <v>10139</v>
+        <v>2750</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>58</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T119" t="n">
         <v>-1</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="1" t="n">
-        <v>10140</v>
+        <v>2751</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>58</v>
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T120" t="n">
         <v>-1</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="1" t="n">
-        <v>10141</v>
+        <v>2752</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>58</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T121" t="n">
         <v>-1</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="1" t="n">
-        <v>10142</v>
+        <v>2753</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>58</v>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T122" t="n">
         <v>-1</v>
@@ -10086,7 +10086,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="1" t="n">
-        <v>10143</v>
+        <v>2754</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>58</v>
@@ -10131,7 +10131,7 @@
         <v>239</v>
       </c>
       <c r="S123" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T123" t="n">
         <v>-1</v>
@@ -10154,7 +10154,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="1" t="n">
-        <v>10144</v>
+        <v>2755</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>59</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T124" t="n">
         <v>-1</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="1" t="n">
-        <v>10145</v>
+        <v>2756</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>59</v>
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T125" t="n">
         <v>-1</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="1" t="n">
-        <v>10146</v>
+        <v>2757</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>60</v>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T126" t="n">
         <v>-1</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="1" t="n">
-        <v>10147</v>
+        <v>2758</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>60</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T127" t="n">
         <v>-1</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="1" t="n">
-        <v>10148</v>
+        <v>2759</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T128" t="n">
         <v>-1</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" s="1" t="n">
-        <v>10149</v>
+        <v>2760</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>61</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T129" t="n">
         <v>-1</v>
@@ -10548,7 +10548,7 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="1" t="n">
-        <v>10150</v>
+        <v>2761</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>62</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T130" t="n">
         <v>-1</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="1" t="n">
-        <v>10151</v>
+        <v>2762</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>63</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T131" t="n">
         <v>-1</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="1" t="n">
-        <v>10152</v>
+        <v>2763</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T132" t="n">
         <v>-1</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="1" t="n">
-        <v>10153</v>
+        <v>2764</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>64</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T133" t="n">
         <v>-1</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" s="1" t="n">
-        <v>10154</v>
+        <v>2765</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>65</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T134" t="n">
         <v>-1</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" s="1" t="n">
-        <v>10155</v>
+        <v>2766</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T135" t="n">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="1" t="n">
-        <v>10156</v>
+        <v>2767</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>66</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T136" t="n">
         <v>-1</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="n">
-        <v>10157</v>
+        <v>2768</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>66</v>
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T137" t="n">
         <v>-1</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" s="1" t="n">
-        <v>10158</v>
+        <v>2769</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>67</v>
@@ -11113,7 +11113,7 @@
         <v>293</v>
       </c>
       <c r="S138" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T138" t="n">
         <v>-1</v>
@@ -11136,7 +11136,7 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" s="1" t="n">
-        <v>10159</v>
+        <v>2770</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>67</v>
@@ -11180,7 +11180,7 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T139" t="n">
         <v>-1</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" s="1" t="n">
-        <v>10160</v>
+        <v>2771</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>67</v>
@@ -11245,7 +11245,7 @@
         <v>5</v>
       </c>
       <c r="S140" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T140" t="n">
         <v>-1</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" s="1" t="n">
-        <v>10161</v>
+        <v>2772</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>67</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T141" t="n">
         <v>-1</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" s="1" t="n">
-        <v>10162</v>
+        <v>2773</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>67</v>
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T142" t="n">
         <v>-1</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" s="1" t="n">
-        <v>10163</v>
+        <v>2774</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>67</v>
@@ -11445,7 +11445,7 @@
         <v>306</v>
       </c>
       <c r="S143" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T143" t="n">
         <v>-1</v>
@@ -11468,7 +11468,7 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" s="1" t="n">
-        <v>10164</v>
+        <v>2775</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>67</v>
@@ -11515,7 +11515,7 @@
         <v>306</v>
       </c>
       <c r="S144" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T144" t="n">
         <v>-1</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" s="1" t="n">
-        <v>10165</v>
+        <v>2776</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>67</v>
@@ -11580,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T145" t="n">
         <v>-1</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="1" t="n">
-        <v>10166</v>
+        <v>2777</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>68</v>
@@ -11648,7 +11648,7 @@
         <v>293</v>
       </c>
       <c r="S146" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T146" t="n">
         <v>-1</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" s="1" t="n">
-        <v>10167</v>
+        <v>2778</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>69</v>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T147" t="n">
         <v>-1</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" s="1" t="n">
-        <v>10168</v>
+        <v>2779</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>70</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T148" t="n">
         <v>-1</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="1" t="n">
-        <v>10169</v>
+        <v>2780</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>70</v>
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T149" t="n">
         <v>-1</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" s="1" t="n">
-        <v>10170</v>
+        <v>2781</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>70</v>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T150" t="n">
         <v>-1</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="1" t="n">
-        <v>10171</v>
+        <v>2782</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>70</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T151" t="n">
         <v>-1</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" s="1" t="n">
-        <v>10172</v>
+        <v>2783</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71</v>
@@ -12040,7 +12040,7 @@
         <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T152" t="n">
         <v>-1</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" s="1" t="n">
-        <v>10173</v>
+        <v>2784</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>72</v>
@@ -12108,7 +12108,7 @@
         <v>226</v>
       </c>
       <c r="S153" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T153" t="n">
         <v>-1</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="1" t="n">
-        <v>10174</v>
+        <v>2785</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>73</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T154" t="n">
         <v>-1</v>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" s="1" t="n">
-        <v>10175</v>
+        <v>2786</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>73</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T155" t="n">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="1" t="n">
-        <v>10176</v>
+        <v>2787</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>74</v>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T156" t="n">
         <v>-1</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" s="1" t="n">
-        <v>10177</v>
+        <v>2788</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>75</v>
@@ -12370,7 +12370,7 @@
         <v>1.5</v>
       </c>
       <c r="S157" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T157" t="n">
         <v>-1</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" s="1" t="n">
-        <v>10178</v>
+        <v>2789</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>75</v>
@@ -12437,7 +12437,7 @@
         <v>1.5</v>
       </c>
       <c r="S158" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T158" t="n">
         <v>-1</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="1" t="n">
-        <v>10179</v>
+        <v>2790</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>75</v>
@@ -12504,7 +12504,7 @@
         <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T159" t="n">
         <v>-1</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" s="1" t="n">
-        <v>10180</v>
+        <v>2791</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>75</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T160" t="n">
         <v>-1</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="1" t="n">
-        <v>10181</v>
+        <v>2792</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>75</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T161" t="n">
         <v>-1</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" s="1" t="n">
-        <v>10182</v>
+        <v>2793</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>75</v>
@@ -12704,7 +12704,7 @@
         <v>239</v>
       </c>
       <c r="S162" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T162" t="n">
         <v>-1</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" s="1" t="n">
-        <v>10183</v>
+        <v>2794</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>76</v>
@@ -12769,7 +12769,7 @@
         <v>1.5</v>
       </c>
       <c r="S163" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T163" t="n">
         <v>-1</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="1" t="n">
-        <v>10184</v>
+        <v>2795</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>77</v>
@@ -12834,7 +12834,7 @@
         <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T164" t="n">
         <v>-1</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" s="1" t="n">
-        <v>10185</v>
+        <v>2796</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>78</v>
@@ -12899,7 +12899,7 @@
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T165" t="n">
         <v>-1</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="1" t="n">
-        <v>10186</v>
+        <v>2797</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>78</v>
@@ -12966,7 +12966,7 @@
         <v>1.5</v>
       </c>
       <c r="S166" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T166" t="n">
         <v>-1</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" s="1" t="n">
-        <v>10187</v>
+        <v>2798</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>78</v>
@@ -13033,7 +13033,7 @@
         <v>1.5</v>
       </c>
       <c r="S167" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T167" t="n">
         <v>-1</v>
@@ -13056,7 +13056,7 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" s="1" t="n">
-        <v>10188</v>
+        <v>2799</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>78</v>
@@ -13101,7 +13101,7 @@
         <v>239</v>
       </c>
       <c r="S168" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T168" t="n">
         <v>-1</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="1" t="n">
-        <v>10189</v>
+        <v>2800</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>79</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T169" t="n">
         <v>-1</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" s="1" t="n">
-        <v>10190</v>
+        <v>2801</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>79</v>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T170" t="n">
         <v>-1</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="1" t="n">
-        <v>10191</v>
+        <v>2802</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>79</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T171" t="n">
         <v>-1</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" s="1" t="n">
-        <v>10192</v>
+        <v>2803</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>80</v>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T172" t="n">
         <v>-1</v>
@@ -13386,7 +13386,7 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" s="1" t="n">
-        <v>10193</v>
+        <v>2804</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>80</v>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T173" t="n">
         <v>-1</v>
@@ -13451,7 +13451,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="1" t="n">
-        <v>10194</v>
+        <v>2805</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>80</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T174" t="n">
         <v>-1</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" s="1" t="n">
-        <v>10195</v>
+        <v>2806</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>80</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T175" t="n">
         <v>-1</v>
@@ -13583,7 +13583,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="1" t="n">
-        <v>10196</v>
+        <v>2807</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>80</v>
@@ -13627,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T176" t="n">
         <v>-1</v>
@@ -13650,7 +13650,7 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" s="1" t="n">
-        <v>10197</v>
+        <v>2808</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>80</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T177" t="n">
         <v>-1</v>
@@ -13715,7 +13715,7 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" s="1" t="n">
-        <v>10198</v>
+        <v>2809</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>81</v>
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T178" t="n">
         <v>-1</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="1" t="n">
-        <v>10199</v>
+        <v>2810</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>81</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T179" t="n">
         <v>-1</v>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" s="1" t="n">
-        <v>10200</v>
+        <v>2811</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>82</v>
@@ -13887,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T180" t="n">
         <v>-1</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="1" t="n">
-        <v>10201</v>
+        <v>2812</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>83</v>
@@ -13952,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T181" t="n">
         <v>-1</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" s="1" t="n">
-        <v>10202</v>
+        <v>2813</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>84</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T182" t="n">
         <v>-1</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" s="1" t="n">
-        <v>10203</v>
+        <v>2814</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>85</v>
@@ -14082,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T183" t="n">
         <v>-1</v>
@@ -14105,7 +14105,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="1" t="n">
-        <v>10204</v>
+        <v>2815</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>85</v>
@@ -14149,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T184" t="n">
         <v>-1</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" s="1" t="n">
-        <v>10205</v>
+        <v>2816</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>85</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T185" t="n">
         <v>-1</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="1" t="n">
-        <v>10206</v>
+        <v>2817</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>85</v>
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T186" t="n">
         <v>-1</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" s="1" t="n">
-        <v>10207</v>
+        <v>2818</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>85</v>
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T187" t="n">
         <v>-1</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" s="1" t="n">
-        <v>10208</v>
+        <v>2819</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>85</v>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T188" t="n">
         <v>-1</v>
@@ -14436,7 +14436,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="1" t="n">
-        <v>10209</v>
+        <v>2820</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>85</v>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T189" t="n">
         <v>-1</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" s="1" t="n">
-        <v>10210</v>
+        <v>2821</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>85</v>
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T190" t="n">
         <v>-1</v>
@@ -14568,7 +14568,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="1" t="n">
-        <v>10211</v>
+        <v>2822</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>85</v>
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T191" t="n">
         <v>-1</v>
@@ -14633,7 +14633,7 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" s="1" t="n">
-        <v>10212</v>
+        <v>2823</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>85</v>
@@ -14678,7 +14678,7 @@
         <v>239</v>
       </c>
       <c r="S192" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T192" t="n">
         <v>-1</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" s="1" t="n">
-        <v>10213</v>
+        <v>2824</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>86</v>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T193" t="n">
         <v>-1</v>
@@ -14766,7 +14766,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="1" t="n">
-        <v>10214</v>
+        <v>2825</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>86</v>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T194" t="n">
         <v>-1</v>
@@ -14833,7 +14833,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" s="1" t="n">
-        <v>10215</v>
+        <v>2826</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>87</v>
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T195" t="n">
         <v>-1</v>
@@ -14898,7 +14898,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="1" t="n">
-        <v>10216</v>
+        <v>2827</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>88</v>
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T196" t="n">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" s="1" t="n">
-        <v>10217</v>
+        <v>2828</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>88</v>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T197" t="n">
         <v>-1</v>
@@ -15030,7 +15030,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" s="1" t="n">
-        <v>10218</v>
+        <v>2829</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>88</v>
@@ -15072,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T198" t="n">
         <v>-1</v>
@@ -15095,7 +15095,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="1" t="n">
-        <v>10219</v>
+        <v>2830</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>88</v>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T199" t="n">
         <v>-1</v>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" s="1" t="n">
-        <v>10220</v>
+        <v>2831</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>89</v>
@@ -15202,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T200" t="n">
         <v>-1</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="1" t="n">
-        <v>10221</v>
+        <v>2832</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>90</v>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T201" t="n">
         <v>-1</v>
@@ -15290,7 +15290,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" s="1" t="n">
-        <v>10222</v>
+        <v>2833</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>90</v>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T202" t="n">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" s="1" t="n">
-        <v>10223</v>
+        <v>2834</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>90</v>
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T203" t="n">
         <v>-1</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="1" t="n">
-        <v>10224</v>
+        <v>2835</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>90</v>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T204" t="n">
         <v>-1</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" s="1" t="n">
-        <v>10225</v>
+        <v>2836</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>90</v>
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T205" t="n">
         <v>-1</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="1" t="n">
-        <v>10226</v>
+        <v>2837</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>90</v>
@@ -15596,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T206" t="n">
         <v>-1</v>
@@ -15619,7 +15619,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" s="1" t="n">
-        <v>10227</v>
+        <v>2838</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>90</v>
@@ -15663,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T207" t="n">
         <v>-1</v>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" s="1" t="n">
-        <v>10228</v>
+        <v>2839</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>90</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T208" t="n">
         <v>-1</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" s="1" t="n">
-        <v>10229</v>
+        <v>2840</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>91</v>
@@ -15793,7 +15793,7 @@
         <v>1.5</v>
       </c>
       <c r="S209" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T209" t="n">
         <v>-1</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" s="1" t="n">
-        <v>10230</v>
+        <v>2841</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>91</v>
@@ -15860,7 +15860,7 @@
         <v>1.5</v>
       </c>
       <c r="S210" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T210" t="n">
         <v>-1</v>
@@ -15883,7 +15883,7 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" s="1" t="n">
-        <v>10231</v>
+        <v>2842</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>91</v>
@@ -15927,7 +15927,7 @@
         <v>1.5</v>
       </c>
       <c r="S211" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T211" t="n">
         <v>-1</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" s="1" t="n">
-        <v>10232</v>
+        <v>2843</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>92</v>
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T212" t="n">
         <v>-1</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" s="1" t="n">
-        <v>10233</v>
+        <v>2844</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>93</v>
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T213" t="n">
         <v>-1</v>
@@ -16080,7 +16080,7 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" s="1" t="n">
-        <v>10234</v>
+        <v>2845</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>93</v>
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T214" t="n">
         <v>-1</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" s="1" t="n">
-        <v>10235</v>
+        <v>2846</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>93</v>
@@ -16189,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T215" t="n">
         <v>-1</v>
@@ -16212,7 +16212,7 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" s="1" t="n">
-        <v>10236</v>
+        <v>2847</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>93</v>
@@ -16254,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T216" t="n">
         <v>-1</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" s="1" t="n">
-        <v>10237</v>
+        <v>2848</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>94</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T217" t="n">
         <v>-1</v>
@@ -16342,7 +16342,7 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" s="1" t="n">
-        <v>10238</v>
+        <v>2849</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>94</v>
@@ -16384,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T218" t="n">
         <v>-1</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" s="1" t="n">
-        <v>10239</v>
+        <v>2850</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>94</v>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T219" t="n">
         <v>-1</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" s="1" t="n">
-        <v>10240</v>
+        <v>2851</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>95</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T220" t="n">
         <v>-1</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" s="1" t="n">
-        <v>10241</v>
+        <v>2852</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>95</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T221" t="n">
         <v>-1</v>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" s="1" t="n">
-        <v>10242</v>
+        <v>2853</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>96</v>
@@ -16650,7 +16650,7 @@
         <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T222" t="n">
         <v>-1</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" s="1" t="n">
-        <v>10243</v>
+        <v>2854</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>96</v>
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T223" t="n">
         <v>-1</v>
@@ -16740,7 +16740,7 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" s="1" t="n">
-        <v>10244</v>
+        <v>2855</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>96</v>
@@ -16786,7 +16786,7 @@
         <v>1.5</v>
       </c>
       <c r="S224" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T224" t="n">
         <v>-1</v>
@@ -16809,7 +16809,7 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" s="1" t="n">
-        <v>10245</v>
+        <v>2856</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>96</v>
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T225" t="n">
         <v>-1</v>
@@ -16878,7 +16878,7 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" s="1" t="n">
-        <v>10246</v>
+        <v>2857</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>96</v>
@@ -16922,7 +16922,7 @@
         <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T226" t="n">
         <v>-1</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" s="1" t="n">
-        <v>10247</v>
+        <v>2858</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>97</v>
@@ -16991,7 +16991,7 @@
         <v>363</v>
       </c>
       <c r="S227" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T227" t="n">
         <v>-1</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" s="1" t="n">
-        <v>10248</v>
+        <v>2859</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>98</v>
@@ -17056,7 +17056,7 @@
         <v>1.5</v>
       </c>
       <c r="S228" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T228" t="n">
         <v>-1</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" s="1" t="n">
-        <v>10249</v>
+        <v>2860</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>99</v>
@@ -17125,7 +17125,7 @@
         <v>363</v>
       </c>
       <c r="S229" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T229" t="n">
         <v>-1</v>
@@ -17148,7 +17148,7 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" s="1" t="n">
-        <v>10250</v>
+        <v>2861</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>100</v>
@@ -17194,7 +17194,7 @@
         <v>363</v>
       </c>
       <c r="S230" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T230" t="n">
         <v>-1</v>
@@ -17217,7 +17217,7 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" s="1" t="n">
-        <v>10251</v>
+        <v>2862</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>101</v>
@@ -17263,7 +17263,7 @@
         <v>372</v>
       </c>
       <c r="S231" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T231" t="n">
         <v>-1</v>
@@ -17286,7 +17286,7 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" s="1" t="n">
-        <v>10252</v>
+        <v>2863</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>102</v>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T232" t="n">
         <v>-1</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" s="1" t="n">
-        <v>10253</v>
+        <v>2864</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>103</v>
@@ -17391,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T233" t="n">
         <v>-1</v>
@@ -17414,7 +17414,7 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" s="1" t="n">
-        <v>10254</v>
+        <v>2865</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>103</v>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T234" t="n">
         <v>-1</v>
@@ -17481,7 +17481,7 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" s="1" t="n">
-        <v>10255</v>
+        <v>2866</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>104</v>
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T235" t="n">
         <v>-1</v>
@@ -17544,7 +17544,7 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" s="1" t="n">
-        <v>10256</v>
+        <v>2867</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>105</v>
@@ -17586,7 +17586,7 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T236" t="n">
         <v>-1</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" s="1" t="n">
-        <v>10257</v>
+        <v>2868</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>106</v>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T237" t="n">
         <v>-1</v>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" s="1" t="n">
-        <v>10258</v>
+        <v>2869</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>106</v>
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T238" t="n">
         <v>-1</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" s="1" t="n">
-        <v>10259</v>
+        <v>2870</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>106</v>
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T239" t="n">
         <v>-1</v>
@@ -17804,7 +17804,7 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" s="1" t="n">
-        <v>10260</v>
+        <v>2871</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>106</v>
@@ -17846,7 +17846,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T240" t="n">
         <v>-1</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" s="1" t="n">
-        <v>10261</v>
+        <v>2872</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>107</v>
@@ -17911,7 +17911,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T241" t="n">
         <v>-1</v>
@@ -17934,7 +17934,7 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" s="1" t="n">
-        <v>10262</v>
+        <v>2873</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>107</v>
@@ -17976,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T242" t="n">
         <v>-1</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" s="1" t="n">
-        <v>10263</v>
+        <v>2874</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>107</v>
@@ -18041,7 +18041,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T243" t="n">
         <v>-1</v>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" s="1" t="n">
-        <v>10264</v>
+        <v>2875</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>107</v>
@@ -18106,7 +18106,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T244" t="n">
         <v>-1</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" s="1" t="n">
-        <v>10265</v>
+        <v>2876</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>108</v>
@@ -18171,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T245" t="n">
         <v>-1</v>
@@ -18194,7 +18194,7 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" s="1" t="n">
-        <v>10266</v>
+        <v>2877</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>108</v>
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T246" t="n">
         <v>-1</v>
@@ -18259,7 +18259,7 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" s="1" t="n">
-        <v>10267</v>
+        <v>2878</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>109</v>
@@ -18301,7 +18301,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T247" t="n">
         <v>-1</v>
@@ -18324,7 +18324,7 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" s="1" t="n">
-        <v>10268</v>
+        <v>2879</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>110</v>
@@ -18366,7 +18366,7 @@
         <v>4</v>
       </c>
       <c r="S248" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T248" t="n">
         <v>-1</v>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" s="1" t="n">
-        <v>10269</v>
+        <v>2880</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>110</v>
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T249" t="n">
         <v>-1</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" s="1" t="n">
-        <v>10270</v>
+        <v>2881</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>110</v>
@@ -18498,7 +18498,7 @@
         <v>5</v>
       </c>
       <c r="S250" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T250" t="n">
         <v>-1</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" s="1" t="n">
-        <v>10271</v>
+        <v>2882</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>110</v>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T251" t="n">
         <v>-1</v>
@@ -18588,7 +18588,7 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" s="1" t="n">
-        <v>10272</v>
+        <v>2883</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>110</v>
@@ -18632,7 +18632,7 @@
         <v>5</v>
       </c>
       <c r="S252" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T252" t="n">
         <v>-1</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" s="1" t="n">
-        <v>10273</v>
+        <v>2884</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>110</v>
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T253" t="n">
         <v>-1</v>
@@ -18722,7 +18722,7 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" s="1" t="n">
-        <v>10274</v>
+        <v>2885</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>110</v>
@@ -18766,7 +18766,7 @@
         <v>5</v>
       </c>
       <c r="S254" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T254" t="n">
         <v>-1</v>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" s="1" t="n">
-        <v>10275</v>
+        <v>2886</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>110</v>
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T255" t="n">
         <v>-1</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" s="1" t="n">
-        <v>10276</v>
+        <v>2887</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>110</v>
@@ -18898,7 +18898,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T256" t="n">
         <v>-1</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" s="1" t="n">
-        <v>10277</v>
+        <v>2888</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>111</v>
@@ -18963,7 +18963,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T257" t="n">
         <v>-1</v>
@@ -18986,7 +18986,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" s="1" t="n">
-        <v>10278</v>
+        <v>2889</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>111</v>
@@ -19030,7 +19030,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T258" t="n">
         <v>-1</v>
@@ -19053,7 +19053,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" s="1" t="n">
-        <v>10279</v>
+        <v>2890</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>111</v>
@@ -19097,7 +19097,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T259" t="n">
         <v>-1</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" s="1" t="n">
-        <v>10280</v>
+        <v>2891</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>111</v>
@@ -19164,7 +19164,7 @@
         <v>2</v>
       </c>
       <c r="S260" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T260" t="n">
         <v>-1</v>
@@ -19187,7 +19187,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" s="1" t="n">
-        <v>10281</v>
+        <v>2892</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>111</v>
@@ -19231,7 +19231,7 @@
         <v>3</v>
       </c>
       <c r="S261" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T261" t="n">
         <v>-1</v>
@@ -19254,7 +19254,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" s="1" t="n">
-        <v>10282</v>
+        <v>2893</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>111</v>
@@ -19298,7 +19298,7 @@
         <v>3</v>
       </c>
       <c r="S262" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T262" t="n">
         <v>-1</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" s="1" t="n">
-        <v>10283</v>
+        <v>2894</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>111</v>
@@ -19365,7 +19365,7 @@
         <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T263" t="n">
         <v>-1</v>
@@ -19388,7 +19388,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" s="1" t="n">
-        <v>10284</v>
+        <v>2895</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>112</v>
@@ -19430,7 +19430,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T264" t="n">
         <v>-1</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" s="1" t="n">
-        <v>10285</v>
+        <v>2896</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>112</v>
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T265" t="n">
         <v>-1</v>
@@ -19520,7 +19520,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" s="1" t="n">
-        <v>10286</v>
+        <v>2897</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>112</v>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T266" t="n">
         <v>-1</v>
@@ -19587,7 +19587,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" s="1" t="n">
-        <v>10287</v>
+        <v>2898</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>112</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T267" t="n">
         <v>-1</v>
@@ -19654,7 +19654,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" s="1" t="n">
-        <v>10288</v>
+        <v>2899</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>112</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T268" t="n">
         <v>-1</v>
@@ -19721,7 +19721,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" s="1" t="n">
-        <v>10289</v>
+        <v>2900</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>112</v>
@@ -19765,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T269" t="n">
         <v>-1</v>
@@ -19788,7 +19788,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" s="1" t="n">
-        <v>10290</v>
+        <v>2901</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>112</v>
@@ -19832,7 +19832,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T270" t="n">
         <v>-1</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" s="1" t="n">
-        <v>10291</v>
+        <v>2902</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>113</v>
@@ -19897,7 +19897,7 @@
         <v>2</v>
       </c>
       <c r="S271" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T271" t="n">
         <v>-1</v>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" s="1" t="n">
-        <v>10292</v>
+        <v>2903</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>113</v>
@@ -19964,7 +19964,7 @@
         <v>2</v>
       </c>
       <c r="S272" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T272" t="n">
         <v>-1</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" s="1" t="n">
-        <v>10293</v>
+        <v>2904</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>113</v>
@@ -20031,7 +20031,7 @@
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T273" t="n">
         <v>-1</v>
@@ -20054,7 +20054,7 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" s="1" t="n">
-        <v>10294</v>
+        <v>2905</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>114</v>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T274" t="n">
         <v>-1</v>
@@ -20119,7 +20119,7 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" s="1" t="n">
-        <v>10295</v>
+        <v>2906</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>114</v>
@@ -20163,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T275" t="n">
         <v>-1</v>
@@ -20186,7 +20186,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" s="1" t="n">
-        <v>10296</v>
+        <v>2907</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>114</v>
@@ -20230,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T276" t="n">
         <v>-1</v>
@@ -20253,7 +20253,7 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" s="1" t="n">
-        <v>10297</v>
+        <v>2908</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>115</v>
@@ -20298,7 +20298,7 @@
         <v>226</v>
       </c>
       <c r="S277" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T277" t="n">
         <v>-1</v>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" s="1" t="n">
-        <v>10298</v>
+        <v>2909</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>116</v>
@@ -20366,7 +20366,7 @@
         <v>226</v>
       </c>
       <c r="S278" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T278" t="n">
         <v>-1</v>
@@ -20389,7 +20389,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" s="1" t="n">
-        <v>10299</v>
+        <v>2910</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>116</v>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T279" t="n">
         <v>-1</v>
@@ -20454,7 +20454,7 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" s="1" t="n">
-        <v>10300</v>
+        <v>2911</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>117</v>
@@ -20496,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T280" t="n">
         <v>-1</v>
@@ -20519,7 +20519,7 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" s="1" t="n">
-        <v>10301</v>
+        <v>2912</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>117</v>
@@ -20561,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T281" t="n">
         <v>-1</v>
@@ -20584,7 +20584,7 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" s="1" t="n">
-        <v>10302</v>
+        <v>2913</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>118</v>
@@ -20626,7 +20626,7 @@
         <v>4</v>
       </c>
       <c r="S282" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T282" t="n">
         <v>-1</v>
@@ -20649,7 +20649,7 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" s="1" t="n">
-        <v>10303</v>
+        <v>2914</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>118</v>
@@ -20693,7 +20693,7 @@
         <v>5</v>
       </c>
       <c r="S283" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T283" t="n">
         <v>-1</v>
@@ -20716,7 +20716,7 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" s="1" t="n">
-        <v>10304</v>
+        <v>2915</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>118</v>
@@ -20760,7 +20760,7 @@
         <v>5</v>
       </c>
       <c r="S284" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T284" t="n">
         <v>-1</v>
@@ -20783,7 +20783,7 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" s="1" t="n">
-        <v>10305</v>
+        <v>2916</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>118</v>
@@ -20827,7 +20827,7 @@
         <v>5</v>
       </c>
       <c r="S285" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T285" t="n">
         <v>-1</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" s="1" t="n">
-        <v>10306</v>
+        <v>2917</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>118</v>
@@ -20894,7 +20894,7 @@
         <v>5</v>
       </c>
       <c r="S286" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T286" t="n">
         <v>-1</v>
@@ -20917,7 +20917,7 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" s="1" t="n">
-        <v>10307</v>
+        <v>2918</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>118</v>
@@ -20961,7 +20961,7 @@
         <v>5</v>
       </c>
       <c r="S287" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T287" t="n">
         <v>-1</v>
@@ -20984,7 +20984,7 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" s="1" t="n">
-        <v>10308</v>
+        <v>2919</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>118</v>
@@ -21026,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T288" t="n">
         <v>-1</v>
@@ -21049,7 +21049,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" s="1" t="n">
-        <v>10309</v>
+        <v>2920</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>118</v>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T289" t="n">
         <v>-1</v>
@@ -21116,7 +21116,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" s="1" t="n">
-        <v>10310</v>
+        <v>2921</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>118</v>
@@ -21158,7 +21158,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T290" t="n">
         <v>-1</v>
@@ -21181,7 +21181,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" s="1" t="n">
-        <v>10311</v>
+        <v>2922</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>118</v>
@@ -21225,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T291" t="n">
         <v>-1</v>
@@ -21248,7 +21248,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" s="1" t="n">
-        <v>10312</v>
+        <v>2923</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>119</v>
@@ -21290,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T292" t="n">
         <v>-1</v>
@@ -21313,7 +21313,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" s="1" t="n">
-        <v>10313</v>
+        <v>2924</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>119</v>
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T293" t="n">
         <v>-1</v>
@@ -21380,7 +21380,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" s="1" t="n">
-        <v>10314</v>
+        <v>2925</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>119</v>
@@ -21422,7 +21422,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T294" t="n">
         <v>-1</v>
@@ -21445,7 +21445,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" s="1" t="n">
-        <v>10315</v>
+        <v>2926</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>119</v>
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T295" t="n">
         <v>-1</v>
@@ -21510,7 +21510,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" s="1" t="n">
-        <v>10316</v>
+        <v>2927</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>119</v>
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T296" t="n">
         <v>-1</v>
@@ -21575,7 +21575,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" s="1" t="n">
-        <v>10317</v>
+        <v>2928</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>119</v>
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T297" t="n">
         <v>-1</v>
@@ -21640,7 +21640,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" s="1" t="n">
-        <v>10318</v>
+        <v>2929</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>119</v>
@@ -21684,7 +21684,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T298" t="n">
         <v>-1</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" s="1" t="n">
-        <v>10319</v>
+        <v>2930</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>119</v>
@@ -21749,7 +21749,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T299" t="n">
         <v>-1</v>
@@ -21772,7 +21772,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" s="1" t="n">
-        <v>10320</v>
+        <v>2931</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>119</v>
@@ -21814,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T300" t="n">
         <v>-1</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" s="1" t="n">
-        <v>10321</v>
+        <v>2932</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>119</v>
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T301" t="n">
         <v>-1</v>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" s="1" t="n">
-        <v>10322</v>
+        <v>2933</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>120</v>
@@ -21944,7 +21944,7 @@
         <v>1.5</v>
       </c>
       <c r="S302" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T302" t="n">
         <v>-1</v>
@@ -21967,7 +21967,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" s="1" t="n">
-        <v>10323</v>
+        <v>2934</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>120</v>
@@ -22014,7 +22014,7 @@
         <v>443</v>
       </c>
       <c r="S303" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T303" t="n">
         <v>-1</v>
@@ -22037,7 +22037,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" s="1" t="n">
-        <v>10324</v>
+        <v>2935</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>121</v>
@@ -22081,7 +22081,7 @@
         <v>1.5</v>
       </c>
       <c r="S304" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T304" t="n">
         <v>-1</v>
@@ -22104,7 +22104,7 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" s="1" t="n">
-        <v>10325</v>
+        <v>2936</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>121</v>
@@ -22148,7 +22148,7 @@
         <v>1.5</v>
       </c>
       <c r="S305" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T305" t="n">
         <v>-1</v>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" s="1" t="n">
-        <v>10326</v>
+        <v>2937</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>122</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="S306" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T306" t="n">
         <v>-1</v>
@@ -22238,7 +22238,7 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" s="1" t="n">
-        <v>10327</v>
+        <v>2938</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>122</v>
@@ -22282,7 +22282,7 @@
         <v>1.5</v>
       </c>
       <c r="S307" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T307" t="n">
         <v>-1</v>
@@ -22305,7 +22305,7 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" s="1" t="n">
-        <v>10328</v>
+        <v>2939</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>123</v>
@@ -22347,7 +22347,7 @@
         <v>1.5</v>
       </c>
       <c r="S308" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T308" t="n">
         <v>-1</v>
@@ -22370,7 +22370,7 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" s="1" t="n">
-        <v>10329</v>
+        <v>2940</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>123</v>
@@ -22417,7 +22417,7 @@
         <v>443</v>
       </c>
       <c r="S309" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T309" t="n">
         <v>-1</v>
@@ -22440,7 +22440,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" s="1" t="n">
-        <v>10330</v>
+        <v>2941</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>123</v>
@@ -22484,7 +22484,7 @@
         <v>1.5</v>
       </c>
       <c r="S310" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T310" t="n">
         <v>-1</v>
@@ -22507,7 +22507,7 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" s="1" t="n">
-        <v>10331</v>
+        <v>2942</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>123</v>
@@ -22551,7 +22551,7 @@
         <v>1.5</v>
       </c>
       <c r="S311" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T311" t="n">
         <v>-1</v>
@@ -22574,7 +22574,7 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" s="1" t="n">
-        <v>10332</v>
+        <v>2943</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>123</v>
@@ -22618,7 +22618,7 @@
         <v>1.5</v>
       </c>
       <c r="S312" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T312" t="n">
         <v>-1</v>
@@ -22641,7 +22641,7 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" s="1" t="n">
-        <v>10333</v>
+        <v>2944</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>124</v>
@@ -22685,7 +22685,7 @@
         <v>1.5</v>
       </c>
       <c r="S313" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T313" t="n">
         <v>-1</v>
@@ -22708,7 +22708,7 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" s="1" t="n">
-        <v>10334</v>
+        <v>2945</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>124</v>
@@ -22750,7 +22750,7 @@
         <v>1.5</v>
       </c>
       <c r="S314" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T314" t="n">
         <v>-1</v>
@@ -22773,7 +22773,7 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" s="1" t="n">
-        <v>10335</v>
+        <v>2946</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>125</v>
@@ -22815,7 +22815,7 @@
         <v>1.5</v>
       </c>
       <c r="S315" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T315" t="n">
         <v>-1</v>
@@ -22838,7 +22838,7 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" s="1" t="n">
-        <v>10336</v>
+        <v>2947</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>125</v>
@@ -22882,7 +22882,7 @@
         <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T316" t="n">
         <v>-1</v>
@@ -22905,7 +22905,7 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" s="1" t="n">
-        <v>10337</v>
+        <v>2948</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>126</v>
@@ -22947,7 +22947,7 @@
         <v>1.5</v>
       </c>
       <c r="S317" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T317" t="n">
         <v>-1</v>
@@ -22970,7 +22970,7 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" s="1" t="n">
-        <v>10338</v>
+        <v>2949</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>126</v>
@@ -23015,7 +23015,7 @@
         <v>239</v>
       </c>
       <c r="S318" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T318" t="n">
         <v>-1</v>
@@ -23038,7 +23038,7 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" s="1" t="n">
-        <v>10339</v>
+        <v>2950</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>127</v>
@@ -23080,7 +23080,7 @@
         <v>1.5</v>
       </c>
       <c r="S319" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T319" t="n">
         <v>-1</v>
@@ -23103,7 +23103,7 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" s="1" t="n">
-        <v>10340</v>
+        <v>2951</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>128</v>
@@ -23145,7 +23145,7 @@
         <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T320" t="n">
         <v>-1</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" s="1" t="n">
-        <v>10341</v>
+        <v>2952</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>128</v>
@@ -23215,7 +23215,7 @@
         <v>443</v>
       </c>
       <c r="S321" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T321" t="n">
         <v>-1</v>
@@ -23238,7 +23238,7 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" s="1" t="n">
-        <v>10342</v>
+        <v>2953</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>129</v>
@@ -23282,7 +23282,7 @@
         <v>1.5</v>
       </c>
       <c r="S322" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T322" t="n">
         <v>-1</v>
@@ -23305,7 +23305,7 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" s="1" t="n">
-        <v>10343</v>
+        <v>2954</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>129</v>
@@ -23349,7 +23349,7 @@
         <v>1.5</v>
       </c>
       <c r="S323" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T323" t="n">
         <v>-1</v>
@@ -23372,7 +23372,7 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" s="1" t="n">
-        <v>10344</v>
+        <v>2955</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>130</v>
@@ -23416,7 +23416,7 @@
         <v>1.5</v>
       </c>
       <c r="S324" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T324" t="n">
         <v>-1</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" s="1" t="n">
-        <v>10345</v>
+        <v>2956</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>130</v>
@@ -23483,7 +23483,7 @@
         <v>1.5</v>
       </c>
       <c r="S325" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T325" t="n">
         <v>-1</v>
@@ -23506,7 +23506,7 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" s="1" t="n">
-        <v>10346</v>
+        <v>2957</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>131</v>
@@ -23548,7 +23548,7 @@
         <v>1.5</v>
       </c>
       <c r="S326" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T326" t="n">
         <v>-1</v>
@@ -23571,7 +23571,7 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" s="1" t="n">
-        <v>10347</v>
+        <v>2958</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>131</v>
@@ -23618,7 +23618,7 @@
         <v>443</v>
       </c>
       <c r="S327" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T327" t="n">
         <v>-1</v>
@@ -23641,7 +23641,7 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" s="1" t="n">
-        <v>10348</v>
+        <v>2959</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>132</v>
@@ -23685,7 +23685,7 @@
         <v>1.5</v>
       </c>
       <c r="S328" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T328" t="n">
         <v>-1</v>
@@ -23708,7 +23708,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" s="1" t="n">
-        <v>10349</v>
+        <v>2960</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>133</v>
@@ -23752,7 +23752,7 @@
         <v>1.5</v>
       </c>
       <c r="S329" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T329" t="n">
         <v>-1</v>
@@ -23775,7 +23775,7 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" s="1" t="n">
-        <v>10350</v>
+        <v>2961</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>133</v>
@@ -23819,7 +23819,7 @@
         <v>1.5</v>
       </c>
       <c r="S330" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T330" t="n">
         <v>-1</v>

--- a/bin/new管道材料等级索引表.xlsx
+++ b/bin/new管道材料等级索引表.xlsx
@@ -163,7 +163,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>2016/08/23</t>
+    <t>2016/08/31</t>
   </si>
   <si>
     <t>AADbvzAApAAAAFdAAA</t>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="n">
-        <v>2633</v>
+        <v>9542</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>49</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="n">
-        <v>2634</v>
+        <v>9543</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -2119,10 +2119,10 @@
         <v>58</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>49</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="n">
-        <v>2635</v>
+        <v>9544</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -2189,10 +2189,10 @@
         <v>58</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>49</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="n">
-        <v>2636</v>
+        <v>9545</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -2259,10 +2259,10 @@
         <v>66</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>49</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="n">
-        <v>2637</v>
+        <v>9546</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -2329,10 +2329,10 @@
         <v>58</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>49</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="n">
-        <v>2638</v>
+        <v>9547</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2396,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>49</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="n">
-        <v>2639</v>
+        <v>9548</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -2464,10 +2464,10 @@
         <v>58</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>49</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="n">
-        <v>2640</v>
+        <v>9549</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
@@ -2532,10 +2532,10 @@
         <v>58</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>49</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="n">
-        <v>2641</v>
+        <v>9550</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
@@ -2600,10 +2600,10 @@
         <v>58</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>49</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="n">
-        <v>2642</v>
+        <v>9551</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -2665,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>49</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="n">
-        <v>2643</v>
+        <v>9552</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9</v>
@@ -2730,10 +2730,10 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>49</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="n">
-        <v>2644</v>
+        <v>9553</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9</v>
@@ -2797,10 +2797,10 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>49</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="n">
-        <v>2645</v>
+        <v>9554</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9</v>
@@ -2864,10 +2864,10 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>49</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="n">
-        <v>2646</v>
+        <v>9555</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>49</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="n">
-        <v>2647</v>
+        <v>9556</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -3000,10 +3000,10 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>49</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="n">
-        <v>2648</v>
+        <v>9557</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>49</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="n">
-        <v>2649</v>
+        <v>9558</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9</v>
@@ -3136,10 +3136,10 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>49</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="n">
-        <v>2650</v>
+        <v>9559</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -3201,10 +3201,10 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>49</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="n">
-        <v>2651</v>
+        <v>9560</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
@@ -3269,10 +3269,10 @@
         <v>112</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>49</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="n">
-        <v>2652</v>
+        <v>9561</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -3336,10 +3336,10 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>49</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="n">
-        <v>2653</v>
+        <v>9562</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>13</v>
@@ -3403,10 +3403,10 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>49</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="n">
-        <v>2654</v>
+        <v>9563</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14</v>
@@ -3468,10 +3468,10 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>49</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="n">
-        <v>2655</v>
+        <v>9564</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>14</v>
@@ -3535,10 +3535,10 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>49</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="n">
-        <v>2656</v>
+        <v>9565</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>49</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="n">
-        <v>2657</v>
+        <v>9566</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15</v>
@@ -3665,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>49</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="1" t="n">
-        <v>2658</v>
+        <v>9567</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16</v>
@@ -3730,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>49</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="1" t="n">
-        <v>2659</v>
+        <v>9568</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>16</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>49</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="1" t="n">
-        <v>2660</v>
+        <v>9569</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17</v>
@@ -3864,10 +3864,10 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>49</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="1" t="n">
-        <v>2661</v>
+        <v>9570</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18</v>
@@ -3934,10 +3934,10 @@
         <v>58</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>49</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="1" t="n">
-        <v>2662</v>
+        <v>9571</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19</v>
@@ -4002,10 +4002,10 @@
         <v>58</v>
       </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>49</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="1" t="n">
-        <v>2663</v>
+        <v>9572</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>49</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="1" t="n">
-        <v>2664</v>
+        <v>9573</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>49</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="1" t="n">
-        <v>2665</v>
+        <v>9574</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>21</v>
@@ -4199,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>49</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="1" t="n">
-        <v>2666</v>
+        <v>9575</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -4264,10 +4264,10 @@
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>49</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="1" t="n">
-        <v>2667</v>
+        <v>9576</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>23</v>
@@ -4331,10 +4331,10 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>49</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="1" t="n">
-        <v>2668</v>
+        <v>9577</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>23</v>
@@ -4398,10 +4398,10 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>49</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="1" t="n">
-        <v>2669</v>
+        <v>9578</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -4463,10 +4463,10 @@
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>49</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="1" t="n">
-        <v>2670</v>
+        <v>9579</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>25</v>
@@ -4528,10 +4528,10 @@
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>49</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="1" t="n">
-        <v>2671</v>
+        <v>9580</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>26</v>
@@ -4593,10 +4593,10 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>49</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="1" t="n">
-        <v>2672</v>
+        <v>9581</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>26</v>
@@ -4660,10 +4660,10 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>49</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="1" t="n">
-        <v>2673</v>
+        <v>9582</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>27</v>
@@ -4728,10 +4728,10 @@
         <v>58</v>
       </c>
       <c r="S42" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>49</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="1" t="n">
-        <v>2674</v>
+        <v>9583</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>27</v>
@@ -4798,10 +4798,10 @@
         <v>58</v>
       </c>
       <c r="S43" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>49</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="1" t="n">
-        <v>2675</v>
+        <v>9584</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>28</v>
@@ -4865,10 +4865,10 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>49</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="1" t="n">
-        <v>2676</v>
+        <v>9585</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>28</v>
@@ -4932,10 +4932,10 @@
         <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2" t="s">
         <v>49</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="1" t="n">
-        <v>2677</v>
+        <v>9586</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>29</v>
@@ -4997,10 +4997,10 @@
         <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>49</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="1" t="n">
-        <v>2678</v>
+        <v>9587</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>29</v>
@@ -5062,10 +5062,10 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>49</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="n">
-        <v>2679</v>
+        <v>9588</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>30</v>
@@ -5129,10 +5129,10 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>49</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="n">
-        <v>2680</v>
+        <v>9589</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>31</v>
@@ -5194,10 +5194,10 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="2" t="s">
         <v>49</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="n">
-        <v>2681</v>
+        <v>9590</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>31</v>
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>49</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="1" t="n">
-        <v>2682</v>
+        <v>9591</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>32</v>
@@ -5326,10 +5326,10 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>49</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="1" t="n">
-        <v>2683</v>
+        <v>9592</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>32</v>
@@ -5394,10 +5394,10 @@
         <v>173</v>
       </c>
       <c r="S52" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>49</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="1" t="n">
-        <v>2684</v>
+        <v>9593</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>33</v>
@@ -5459,10 +5459,10 @@
         <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="2" t="s">
         <v>49</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="1" t="n">
-        <v>2685</v>
+        <v>9594</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>33</v>
@@ -5526,10 +5526,10 @@
         <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>49</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="1" t="n">
-        <v>2686</v>
+        <v>9595</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>33</v>
@@ -5593,10 +5593,10 @@
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="2" t="s">
         <v>49</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="1" t="n">
-        <v>2687</v>
+        <v>9596</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>34</v>
@@ -5658,10 +5658,10 @@
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>49</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="1" t="n">
-        <v>2688</v>
+        <v>9597</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>35</v>
@@ -5726,10 +5726,10 @@
         <v>112</v>
       </c>
       <c r="S57" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>49</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="1" t="n">
-        <v>2689</v>
+        <v>9598</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>35</v>
@@ -5791,10 +5791,10 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>49</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="1" t="n">
-        <v>2690</v>
+        <v>9599</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>36</v>
@@ -5859,10 +5859,10 @@
         <v>185</v>
       </c>
       <c r="S59" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>49</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="1" t="n">
-        <v>2691</v>
+        <v>9600</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>36</v>
@@ -5927,10 +5927,10 @@
         <v>185</v>
       </c>
       <c r="S60" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>49</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="n">
-        <v>2692</v>
+        <v>9601</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>37</v>
@@ -5997,10 +5997,10 @@
         <v>185</v>
       </c>
       <c r="S61" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>49</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="1" t="n">
-        <v>2693</v>
+        <v>9602</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>37</v>
@@ -6067,10 +6067,10 @@
         <v>185</v>
       </c>
       <c r="S62" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>49</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="1" t="n">
-        <v>2694</v>
+        <v>9603</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>37</v>
@@ -6134,10 +6134,10 @@
         <v>197</v>
       </c>
       <c r="S63" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>49</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="1" t="n">
-        <v>2695</v>
+        <v>9604</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>37</v>
@@ -6204,10 +6204,10 @@
         <v>185</v>
       </c>
       <c r="S64" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>49</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="1" t="n">
-        <v>2696</v>
+        <v>9605</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>38</v>
@@ -6274,10 +6274,10 @@
         <v>185</v>
       </c>
       <c r="S65" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="2" t="s">
         <v>49</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="1" t="n">
-        <v>2697</v>
+        <v>9606</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>38</v>
@@ -6342,10 +6342,10 @@
         <v>185</v>
       </c>
       <c r="S66" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>49</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="1" t="n">
-        <v>2698</v>
+        <v>9607</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>38</v>
@@ -6412,10 +6412,10 @@
         <v>185</v>
       </c>
       <c r="S67" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="2" t="s">
         <v>49</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="1" t="n">
-        <v>2699</v>
+        <v>9608</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>38</v>
@@ -6482,10 +6482,10 @@
         <v>185</v>
       </c>
       <c r="S68" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T68" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U68" s="2" t="s">
         <v>49</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="1" t="n">
-        <v>2700</v>
+        <v>9609</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>38</v>
@@ -6552,10 +6552,10 @@
         <v>185</v>
       </c>
       <c r="S69" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="2" t="s">
         <v>49</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="1" t="n">
-        <v>2701</v>
+        <v>9610</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>38</v>
@@ -6622,10 +6622,10 @@
         <v>185</v>
       </c>
       <c r="S70" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U70" s="2" t="s">
         <v>49</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="1" t="n">
-        <v>2702</v>
+        <v>9611</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>38</v>
@@ -6692,10 +6692,10 @@
         <v>185</v>
       </c>
       <c r="S71" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>49</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="1" t="n">
-        <v>2703</v>
+        <v>9612</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>38</v>
@@ -6762,10 +6762,10 @@
         <v>185</v>
       </c>
       <c r="S72" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>49</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="1" t="n">
-        <v>2704</v>
+        <v>9613</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>39</v>
@@ -6827,10 +6827,10 @@
         <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="2" t="s">
         <v>49</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="n">
-        <v>2705</v>
+        <v>9614</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39</v>
@@ -6894,10 +6894,10 @@
         <v>1.5</v>
       </c>
       <c r="S74" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T74" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U74" s="2" t="s">
         <v>49</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="1" t="n">
-        <v>2706</v>
+        <v>9615</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>39</v>
@@ -6961,10 +6961,10 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T75" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>49</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="1" t="n">
-        <v>2707</v>
+        <v>9616</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40</v>
@@ -7026,10 +7026,10 @@
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>49</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="1" t="n">
-        <v>2708</v>
+        <v>9617</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40</v>
@@ -7093,10 +7093,10 @@
         <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U77" s="2" t="s">
         <v>49</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="1" t="n">
-        <v>2709</v>
+        <v>9618</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>41</v>
@@ -7158,10 +7158,10 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T78" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U78" s="2" t="s">
         <v>49</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="1" t="n">
-        <v>2710</v>
+        <v>9619</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42</v>
@@ -7228,10 +7228,10 @@
         <v>221</v>
       </c>
       <c r="S79" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U79" s="2" t="s">
         <v>49</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="1" t="n">
-        <v>2711</v>
+        <v>9620</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43</v>
@@ -7296,10 +7296,10 @@
         <v>173</v>
       </c>
       <c r="S80" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>49</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="1" t="n">
-        <v>2712</v>
+        <v>9621</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>44</v>
@@ -7364,10 +7364,10 @@
         <v>226</v>
       </c>
       <c r="S81" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U81" s="2" t="s">
         <v>49</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="1" t="n">
-        <v>2713</v>
+        <v>9622</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45</v>
@@ -7432,10 +7432,10 @@
         <v>226</v>
       </c>
       <c r="S82" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U82" s="2" t="s">
         <v>49</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="1" t="n">
-        <v>2714</v>
+        <v>9623</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45</v>
@@ -7497,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T83" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="2" t="s">
         <v>49</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="1" t="n">
-        <v>2715</v>
+        <v>9624</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>46</v>
@@ -7562,10 +7562,10 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="2" t="s">
         <v>49</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="1" t="n">
-        <v>2716</v>
+        <v>9625</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>46</v>
@@ -7627,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>49</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="1" t="n">
-        <v>2717</v>
+        <v>9626</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>47</v>
@@ -7692,10 +7692,10 @@
         <v>1.5</v>
       </c>
       <c r="S86" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>49</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="1" t="n">
-        <v>2718</v>
+        <v>9627</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>48</v>
@@ -7757,10 +7757,10 @@
         <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>49</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="n">
-        <v>2719</v>
+        <v>9628</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>48</v>
@@ -7824,10 +7824,10 @@
         <v>1.5</v>
       </c>
       <c r="S88" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>49</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="1" t="n">
-        <v>2720</v>
+        <v>9629</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>48</v>
@@ -7891,10 +7891,10 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U89" s="2" t="s">
         <v>49</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="1" t="n">
-        <v>2721</v>
+        <v>9630</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>48</v>
@@ -7959,10 +7959,10 @@
         <v>239</v>
       </c>
       <c r="S90" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>49</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="1" t="n">
-        <v>2722</v>
+        <v>9631</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>49</v>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>49</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="1" t="n">
-        <v>2723</v>
+        <v>9632</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>49</v>
@@ -8091,10 +8091,10 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>49</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="1" t="n">
-        <v>2724</v>
+        <v>9633</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>49</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T93" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U93" s="2" t="s">
         <v>49</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="1" t="n">
-        <v>2725</v>
+        <v>9634</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>49</v>
@@ -8221,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T94" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>49</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="1" t="n">
-        <v>2726</v>
+        <v>9635</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>49</v>
@@ -8286,10 +8286,10 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T95" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>49</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="1" t="n">
-        <v>2727</v>
+        <v>9636</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>49</v>
@@ -8351,10 +8351,10 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U96" s="2" t="s">
         <v>49</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="1" t="n">
-        <v>2728</v>
+        <v>9637</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>49</v>
@@ -8418,10 +8418,10 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>49</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="1" t="n">
-        <v>2729</v>
+        <v>9638</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>49</v>
@@ -8483,10 +8483,10 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T98" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U98" s="2" t="s">
         <v>49</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="1" t="n">
-        <v>2730</v>
+        <v>9639</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>49</v>
@@ -8548,10 +8548,10 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T99" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U99" s="2" t="s">
         <v>49</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="1" t="n">
-        <v>2731</v>
+        <v>9640</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>49</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U100" s="2" t="s">
         <v>49</v>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="1" t="n">
-        <v>2732</v>
+        <v>9641</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>50</v>
@@ -8678,10 +8678,10 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U101" s="2" t="s">
         <v>49</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="1" t="n">
-        <v>2733</v>
+        <v>9642</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>51</v>
@@ -8743,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U102" s="2" t="s">
         <v>49</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="1" t="n">
-        <v>2734</v>
+        <v>9643</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>52</v>
@@ -8808,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U103" s="2" t="s">
         <v>49</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="1" t="n">
-        <v>2735</v>
+        <v>9644</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>53</v>
@@ -8873,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>49</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="1" t="n">
-        <v>2736</v>
+        <v>9645</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>54</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T105" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U105" s="2" t="s">
         <v>49</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="1" t="n">
-        <v>2737</v>
+        <v>9646</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>54</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>49</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="1" t="n">
-        <v>2738</v>
+        <v>9647</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>55</v>
@@ -9073,10 +9073,10 @@
         <v>226</v>
       </c>
       <c r="S107" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U107" s="2" t="s">
         <v>49</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="1" t="n">
-        <v>2739</v>
+        <v>9648</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>55</v>
@@ -9138,10 +9138,10 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>49</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="1" t="n">
-        <v>2740</v>
+        <v>9649</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>55</v>
@@ -9205,10 +9205,10 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T109" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U109" s="2" t="s">
         <v>49</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="1" t="n">
-        <v>2741</v>
+        <v>9650</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>56</v>
@@ -9270,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T110" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U110" s="2" t="s">
         <v>49</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="n">
-        <v>2742</v>
+        <v>9651</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>57</v>
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T111" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U111" s="2" t="s">
         <v>49</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="1" t="n">
-        <v>2743</v>
+        <v>9652</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>57</v>
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T112" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U112" s="2" t="s">
         <v>49</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="1" t="n">
-        <v>2744</v>
+        <v>9653</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>58</v>
@@ -9470,10 +9470,10 @@
         <v>226</v>
       </c>
       <c r="S113" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T113" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U113" s="2" t="s">
         <v>49</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="1" t="n">
-        <v>2745</v>
+        <v>9654</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>58</v>
@@ -9535,10 +9535,10 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T114" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U114" s="2" t="s">
         <v>49</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="1" t="n">
-        <v>2746</v>
+        <v>9655</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -9600,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U115" s="2" t="s">
         <v>49</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="1" t="n">
-        <v>2747</v>
+        <v>9656</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>58</v>
@@ -9667,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U116" s="2" t="s">
         <v>49</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="1" t="n">
-        <v>2748</v>
+        <v>9657</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>58</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T117" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U117" s="2" t="s">
         <v>49</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="1" t="n">
-        <v>2749</v>
+        <v>9658</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>58</v>
@@ -9799,10 +9799,10 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U118" s="2" t="s">
         <v>49</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="1" t="n">
-        <v>2750</v>
+        <v>9659</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>58</v>
@@ -9864,10 +9864,10 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T119" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>49</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="1" t="n">
-        <v>2751</v>
+        <v>9660</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>58</v>
@@ -9931,10 +9931,10 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U120" s="2" t="s">
         <v>49</v>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="1" t="n">
-        <v>2752</v>
+        <v>9661</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>58</v>
@@ -9996,10 +9996,10 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T121" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U121" s="2" t="s">
         <v>49</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="1" t="n">
-        <v>2753</v>
+        <v>9662</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>58</v>
@@ -10063,10 +10063,10 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T122" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U122" s="2" t="s">
         <v>49</v>
@@ -10086,7 +10086,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="1" t="n">
-        <v>2754</v>
+        <v>9663</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>58</v>
@@ -10131,10 +10131,10 @@
         <v>239</v>
       </c>
       <c r="S123" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T123" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U123" s="2" t="s">
         <v>49</v>
@@ -10154,7 +10154,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="1" t="n">
-        <v>2755</v>
+        <v>9664</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>59</v>
@@ -10196,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U124" s="2" t="s">
         <v>49</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="1" t="n">
-        <v>2756</v>
+        <v>9665</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>59</v>
@@ -10261,10 +10261,10 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>49</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="1" t="n">
-        <v>2757</v>
+        <v>9666</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>60</v>
@@ -10326,10 +10326,10 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U126" s="2" t="s">
         <v>49</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="1" t="n">
-        <v>2758</v>
+        <v>9667</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>60</v>
@@ -10393,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T127" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>49</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="1" t="n">
-        <v>2759</v>
+        <v>9668</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -10458,10 +10458,10 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T128" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U128" s="2" t="s">
         <v>49</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" s="1" t="n">
-        <v>2760</v>
+        <v>9669</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>61</v>
@@ -10525,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T129" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U129" s="2" t="s">
         <v>49</v>
@@ -10548,7 +10548,7 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="1" t="n">
-        <v>2761</v>
+        <v>9670</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>62</v>
@@ -10590,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T130" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>49</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="1" t="n">
-        <v>2762</v>
+        <v>9671</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>63</v>
@@ -10655,10 +10655,10 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T131" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U131" s="2" t="s">
         <v>49</v>
@@ -10678,7 +10678,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="1" t="n">
-        <v>2763</v>
+        <v>9672</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -10720,10 +10720,10 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T132" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U132" s="2" t="s">
         <v>49</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="1" t="n">
-        <v>2764</v>
+        <v>9673</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>64</v>
@@ -10785,10 +10785,10 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T133" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U133" s="2" t="s">
         <v>49</v>
@@ -10808,7 +10808,7 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" s="1" t="n">
-        <v>2765</v>
+        <v>9674</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>65</v>
@@ -10850,10 +10850,10 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U134" s="2" t="s">
         <v>49</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" s="1" t="n">
-        <v>2766</v>
+        <v>9675</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -10915,10 +10915,10 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>49</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="1" t="n">
-        <v>2767</v>
+        <v>9676</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>66</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T136" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U136" s="2" t="s">
         <v>49</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="n">
-        <v>2768</v>
+        <v>9677</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>66</v>
@@ -11045,10 +11045,10 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T137" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U137" s="2" t="s">
         <v>49</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" s="1" t="n">
-        <v>2769</v>
+        <v>9678</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>67</v>
@@ -11113,10 +11113,10 @@
         <v>293</v>
       </c>
       <c r="S138" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T138" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U138" s="2" t="s">
         <v>49</v>
@@ -11136,7 +11136,7 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" s="1" t="n">
-        <v>2770</v>
+        <v>9679</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>67</v>
@@ -11180,10 +11180,10 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T139" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U139" s="2" t="s">
         <v>49</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" s="1" t="n">
-        <v>2771</v>
+        <v>9680</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>67</v>
@@ -11245,10 +11245,10 @@
         <v>5</v>
       </c>
       <c r="S140" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U140" s="2" t="s">
         <v>49</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" s="1" t="n">
-        <v>2772</v>
+        <v>9681</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>67</v>
@@ -11310,10 +11310,10 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T141" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>49</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" s="1" t="n">
-        <v>2773</v>
+        <v>9682</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>67</v>
@@ -11377,10 +11377,10 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T142" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U142" s="2" t="s">
         <v>49</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" s="1" t="n">
-        <v>2774</v>
+        <v>9683</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>67</v>
@@ -11445,10 +11445,10 @@
         <v>306</v>
       </c>
       <c r="S143" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U143" s="2" t="s">
         <v>49</v>
@@ -11468,7 +11468,7 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" s="1" t="n">
-        <v>2775</v>
+        <v>9684</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>67</v>
@@ -11515,10 +11515,10 @@
         <v>306</v>
       </c>
       <c r="S144" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T144" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U144" s="2" t="s">
         <v>49</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" s="1" t="n">
-        <v>2776</v>
+        <v>9685</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>67</v>
@@ -11580,10 +11580,10 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U145" s="2" t="s">
         <v>49</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="1" t="n">
-        <v>2777</v>
+        <v>9686</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>68</v>
@@ -11648,10 +11648,10 @@
         <v>293</v>
       </c>
       <c r="S146" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T146" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U146" s="2" t="s">
         <v>49</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" s="1" t="n">
-        <v>2778</v>
+        <v>9687</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>69</v>
@@ -11713,10 +11713,10 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T147" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U147" s="2" t="s">
         <v>49</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" s="1" t="n">
-        <v>2779</v>
+        <v>9688</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>70</v>
@@ -11778,10 +11778,10 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U148" s="2" t="s">
         <v>49</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="1" t="n">
-        <v>2780</v>
+        <v>9689</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>70</v>
@@ -11843,10 +11843,10 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T149" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U149" s="2" t="s">
         <v>49</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" s="1" t="n">
-        <v>2781</v>
+        <v>9690</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>70</v>
@@ -11908,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T150" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U150" s="2" t="s">
         <v>49</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="1" t="n">
-        <v>2782</v>
+        <v>9691</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>70</v>
@@ -11975,10 +11975,10 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>49</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" s="1" t="n">
-        <v>2783</v>
+        <v>9692</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71</v>
@@ -12040,10 +12040,10 @@
         <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T152" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U152" s="2" t="s">
         <v>49</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" s="1" t="n">
-        <v>2784</v>
+        <v>9693</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>72</v>
@@ -12108,10 +12108,10 @@
         <v>226</v>
       </c>
       <c r="S153" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T153" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>49</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="1" t="n">
-        <v>2785</v>
+        <v>9694</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>73</v>
@@ -12173,10 +12173,10 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T154" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>49</v>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" s="1" t="n">
-        <v>2786</v>
+        <v>9695</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>73</v>
@@ -12240,10 +12240,10 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T155" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U155" s="2" t="s">
         <v>49</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="1" t="n">
-        <v>2787</v>
+        <v>9696</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>74</v>
@@ -12305,10 +12305,10 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T156" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U156" s="2" t="s">
         <v>49</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" s="1" t="n">
-        <v>2788</v>
+        <v>9697</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>75</v>
@@ -12370,10 +12370,10 @@
         <v>1.5</v>
       </c>
       <c r="S157" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U157" s="2" t="s">
         <v>49</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" s="1" t="n">
-        <v>2789</v>
+        <v>9698</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>75</v>
@@ -12437,10 +12437,10 @@
         <v>1.5</v>
       </c>
       <c r="S158" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T158" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U158" s="2" t="s">
         <v>49</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="1" t="n">
-        <v>2790</v>
+        <v>9699</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>75</v>
@@ -12504,10 +12504,10 @@
         <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U159" s="2" t="s">
         <v>49</v>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" s="1" t="n">
-        <v>2791</v>
+        <v>9700</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>75</v>
@@ -12569,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T160" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U160" s="2" t="s">
         <v>49</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="1" t="n">
-        <v>2792</v>
+        <v>9701</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>75</v>
@@ -12636,10 +12636,10 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T161" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U161" s="2" t="s">
         <v>49</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" s="1" t="n">
-        <v>2793</v>
+        <v>9702</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>75</v>
@@ -12704,10 +12704,10 @@
         <v>239</v>
       </c>
       <c r="S162" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T162" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U162" s="2" t="s">
         <v>49</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" s="1" t="n">
-        <v>2794</v>
+        <v>9703</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>76</v>
@@ -12769,10 +12769,10 @@
         <v>1.5</v>
       </c>
       <c r="S163" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T163" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U163" s="2" t="s">
         <v>49</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="1" t="n">
-        <v>2795</v>
+        <v>9704</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>77</v>
@@ -12834,10 +12834,10 @@
         <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T164" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U164" s="2" t="s">
         <v>49</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" s="1" t="n">
-        <v>2796</v>
+        <v>9705</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>78</v>
@@ -12899,10 +12899,10 @@
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T165" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>49</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="1" t="n">
-        <v>2797</v>
+        <v>9706</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>78</v>
@@ -12966,10 +12966,10 @@
         <v>1.5</v>
       </c>
       <c r="S166" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T166" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U166" s="2" t="s">
         <v>49</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" s="1" t="n">
-        <v>2798</v>
+        <v>9707</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>78</v>
@@ -13033,10 +13033,10 @@
         <v>1.5</v>
       </c>
       <c r="S167" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T167" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U167" s="2" t="s">
         <v>49</v>
@@ -13056,7 +13056,7 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" s="1" t="n">
-        <v>2799</v>
+        <v>9708</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>78</v>
@@ -13101,10 +13101,10 @@
         <v>239</v>
       </c>
       <c r="S168" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T168" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U168" s="2" t="s">
         <v>49</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="1" t="n">
-        <v>2800</v>
+        <v>9709</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>79</v>
@@ -13166,10 +13166,10 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U169" s="2" t="s">
         <v>49</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" s="1" t="n">
-        <v>2801</v>
+        <v>9710</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>79</v>
@@ -13231,10 +13231,10 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T170" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U170" s="2" t="s">
         <v>49</v>
@@ -13254,7 +13254,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="1" t="n">
-        <v>2802</v>
+        <v>9711</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>79</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U171" s="2" t="s">
         <v>49</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" s="1" t="n">
-        <v>2803</v>
+        <v>9712</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>80</v>
@@ -13363,10 +13363,10 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T172" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U172" s="2" t="s">
         <v>49</v>
@@ -13386,7 +13386,7 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" s="1" t="n">
-        <v>2804</v>
+        <v>9713</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>80</v>
@@ -13428,10 +13428,10 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T173" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U173" s="2" t="s">
         <v>49</v>
@@ -13451,7 +13451,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="1" t="n">
-        <v>2805</v>
+        <v>9714</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>80</v>
@@ -13495,10 +13495,10 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T174" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U174" s="2" t="s">
         <v>49</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" s="1" t="n">
-        <v>2806</v>
+        <v>9715</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>80</v>
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T175" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U175" s="2" t="s">
         <v>49</v>
@@ -13583,7 +13583,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="1" t="n">
-        <v>2807</v>
+        <v>9716</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>80</v>
@@ -13627,10 +13627,10 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T176" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U176" s="2" t="s">
         <v>49</v>
@@ -13650,7 +13650,7 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" s="1" t="n">
-        <v>2808</v>
+        <v>9717</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>80</v>
@@ -13692,10 +13692,10 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T177" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U177" s="2" t="s">
         <v>49</v>
@@ -13715,7 +13715,7 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" s="1" t="n">
-        <v>2809</v>
+        <v>9718</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>81</v>
@@ -13757,10 +13757,10 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T178" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U178" s="2" t="s">
         <v>49</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="1" t="n">
-        <v>2810</v>
+        <v>9719</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>81</v>
@@ -13822,10 +13822,10 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T179" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U179" s="2" t="s">
         <v>49</v>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" s="1" t="n">
-        <v>2811</v>
+        <v>9720</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>82</v>
@@ -13887,10 +13887,10 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T180" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U180" s="2" t="s">
         <v>49</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="1" t="n">
-        <v>2812</v>
+        <v>9721</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>83</v>
@@ -13952,10 +13952,10 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T181" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U181" s="2" t="s">
         <v>49</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" s="1" t="n">
-        <v>2813</v>
+        <v>9722</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>84</v>
@@ -14017,10 +14017,10 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T182" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U182" s="2" t="s">
         <v>49</v>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" s="1" t="n">
-        <v>2814</v>
+        <v>9723</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>85</v>
@@ -14082,10 +14082,10 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U183" s="2" t="s">
         <v>49</v>
@@ -14105,7 +14105,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="1" t="n">
-        <v>2815</v>
+        <v>9724</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>85</v>
@@ -14149,10 +14149,10 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T184" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U184" s="2" t="s">
         <v>49</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" s="1" t="n">
-        <v>2816</v>
+        <v>9725</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>85</v>
@@ -14214,10 +14214,10 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T185" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U185" s="2" t="s">
         <v>49</v>
@@ -14237,7 +14237,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="1" t="n">
-        <v>2817</v>
+        <v>9726</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>85</v>
@@ -14281,10 +14281,10 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T186" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U186" s="2" t="s">
         <v>49</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" s="1" t="n">
-        <v>2818</v>
+        <v>9727</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>85</v>
@@ -14346,10 +14346,10 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T187" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U187" s="2" t="s">
         <v>49</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" s="1" t="n">
-        <v>2819</v>
+        <v>9728</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>85</v>
@@ -14413,10 +14413,10 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T188" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U188" s="2" t="s">
         <v>49</v>
@@ -14436,7 +14436,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="1" t="n">
-        <v>2820</v>
+        <v>9729</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>85</v>
@@ -14478,10 +14478,10 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T189" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U189" s="2" t="s">
         <v>49</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" s="1" t="n">
-        <v>2821</v>
+        <v>9730</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>85</v>
@@ -14545,10 +14545,10 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T190" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U190" s="2" t="s">
         <v>49</v>
@@ -14568,7 +14568,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="1" t="n">
-        <v>2822</v>
+        <v>9731</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>85</v>
@@ -14610,10 +14610,10 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T191" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U191" s="2" t="s">
         <v>49</v>
@@ -14633,7 +14633,7 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" s="1" t="n">
-        <v>2823</v>
+        <v>9732</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>85</v>
@@ -14678,10 +14678,10 @@
         <v>239</v>
       </c>
       <c r="S192" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U192" s="2" t="s">
         <v>49</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" s="1" t="n">
-        <v>2824</v>
+        <v>9733</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>86</v>
@@ -14743,10 +14743,10 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T193" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U193" s="2" t="s">
         <v>49</v>
@@ -14766,7 +14766,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="1" t="n">
-        <v>2825</v>
+        <v>9734</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>86</v>
@@ -14810,10 +14810,10 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T194" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U194" s="2" t="s">
         <v>49</v>
@@ -14833,7 +14833,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" s="1" t="n">
-        <v>2826</v>
+        <v>9735</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>87</v>
@@ -14875,10 +14875,10 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T195" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U195" s="2" t="s">
         <v>49</v>
@@ -14898,7 +14898,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="1" t="n">
-        <v>2827</v>
+        <v>9736</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>88</v>
@@ -14940,10 +14940,10 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T196" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U196" s="2" t="s">
         <v>49</v>
@@ -14963,7 +14963,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" s="1" t="n">
-        <v>2828</v>
+        <v>9737</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>88</v>
@@ -15007,10 +15007,10 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U197" s="2" t="s">
         <v>49</v>
@@ -15030,7 +15030,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" s="1" t="n">
-        <v>2829</v>
+        <v>9738</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>88</v>
@@ -15072,10 +15072,10 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T198" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U198" s="2" t="s">
         <v>49</v>
@@ -15095,7 +15095,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="1" t="n">
-        <v>2830</v>
+        <v>9739</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>88</v>
@@ -15137,10 +15137,10 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T199" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U199" s="2" t="s">
         <v>49</v>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" s="1" t="n">
-        <v>2831</v>
+        <v>9740</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>89</v>
@@ -15202,10 +15202,10 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U200" s="2" t="s">
         <v>49</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="1" t="n">
-        <v>2832</v>
+        <v>9741</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>90</v>
@@ -15267,10 +15267,10 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T201" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U201" s="2" t="s">
         <v>49</v>
@@ -15290,7 +15290,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" s="1" t="n">
-        <v>2833</v>
+        <v>9742</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>90</v>
@@ -15334,10 +15334,10 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T202" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U202" s="2" t="s">
         <v>49</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" s="1" t="n">
-        <v>2834</v>
+        <v>9743</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>90</v>
@@ -15399,10 +15399,10 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U203" s="2" t="s">
         <v>49</v>
@@ -15422,7 +15422,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="1" t="n">
-        <v>2835</v>
+        <v>9744</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>90</v>
@@ -15466,10 +15466,10 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T204" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U204" s="2" t="s">
         <v>49</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" s="1" t="n">
-        <v>2836</v>
+        <v>9745</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>90</v>
@@ -15531,10 +15531,10 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T205" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U205" s="2" t="s">
         <v>49</v>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="1" t="n">
-        <v>2837</v>
+        <v>9746</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>90</v>
@@ -15596,10 +15596,10 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T206" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U206" s="2" t="s">
         <v>49</v>
@@ -15619,7 +15619,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" s="1" t="n">
-        <v>2838</v>
+        <v>9747</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>90</v>
@@ -15663,10 +15663,10 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T207" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U207" s="2" t="s">
         <v>49</v>
@@ -15686,7 +15686,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" s="1" t="n">
-        <v>2839</v>
+        <v>9748</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>90</v>
@@ -15728,10 +15728,10 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T208" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U208" s="2" t="s">
         <v>49</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" s="1" t="n">
-        <v>2840</v>
+        <v>9749</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>91</v>
@@ -15793,10 +15793,10 @@
         <v>1.5</v>
       </c>
       <c r="S209" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T209" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U209" s="2" t="s">
         <v>49</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" s="1" t="n">
-        <v>2841</v>
+        <v>9750</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>91</v>
@@ -15860,10 +15860,10 @@
         <v>1.5</v>
       </c>
       <c r="S210" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T210" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U210" s="2" t="s">
         <v>49</v>
@@ -15883,7 +15883,7 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" s="1" t="n">
-        <v>2842</v>
+        <v>9751</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>91</v>
@@ -15927,10 +15927,10 @@
         <v>1.5</v>
       </c>
       <c r="S211" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T211" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U211" s="2" t="s">
         <v>49</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" s="1" t="n">
-        <v>2843</v>
+        <v>9752</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>92</v>
@@ -15992,10 +15992,10 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T212" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U212" s="2" t="s">
         <v>49</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" s="1" t="n">
-        <v>2844</v>
+        <v>9753</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>93</v>
@@ -16057,10 +16057,10 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T213" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U213" s="2" t="s">
         <v>49</v>
@@ -16080,7 +16080,7 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" s="1" t="n">
-        <v>2845</v>
+        <v>9754</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>93</v>
@@ -16122,10 +16122,10 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T214" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U214" s="2" t="s">
         <v>49</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" s="1" t="n">
-        <v>2846</v>
+        <v>9755</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>93</v>
@@ -16189,10 +16189,10 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T215" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U215" s="2" t="s">
         <v>49</v>
@@ -16212,7 +16212,7 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" s="1" t="n">
-        <v>2847</v>
+        <v>9756</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>93</v>
@@ -16254,10 +16254,10 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T216" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U216" s="2" t="s">
         <v>49</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" s="1" t="n">
-        <v>2848</v>
+        <v>9757</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>94</v>
@@ -16319,10 +16319,10 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T217" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U217" s="2" t="s">
         <v>49</v>
@@ -16342,7 +16342,7 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" s="1" t="n">
-        <v>2849</v>
+        <v>9758</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>94</v>
@@ -16384,10 +16384,10 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T218" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U218" s="2" t="s">
         <v>49</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" s="1" t="n">
-        <v>2850</v>
+        <v>9759</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>94</v>
@@ -16451,10 +16451,10 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T219" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U219" s="2" t="s">
         <v>49</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" s="1" t="n">
-        <v>2851</v>
+        <v>9760</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>95</v>
@@ -16516,10 +16516,10 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T220" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U220" s="2" t="s">
         <v>49</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" s="1" t="n">
-        <v>2852</v>
+        <v>9761</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>95</v>
@@ -16583,10 +16583,10 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T221" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U221" s="2" t="s">
         <v>49</v>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" s="1" t="n">
-        <v>2853</v>
+        <v>9762</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>96</v>
@@ -16650,10 +16650,10 @@
         <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T222" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U222" s="2" t="s">
         <v>49</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" s="1" t="n">
-        <v>2854</v>
+        <v>9763</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>96</v>
@@ -16717,10 +16717,10 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T223" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U223" s="2" t="s">
         <v>49</v>
@@ -16740,7 +16740,7 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" s="1" t="n">
-        <v>2855</v>
+        <v>9764</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>96</v>
@@ -16786,10 +16786,10 @@
         <v>1.5</v>
       </c>
       <c r="S224" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T224" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U224" s="2" t="s">
         <v>49</v>
@@ -16809,7 +16809,7 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" s="1" t="n">
-        <v>2856</v>
+        <v>9765</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>96</v>
@@ -16855,10 +16855,10 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T225" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U225" s="2" t="s">
         <v>49</v>
@@ -16878,7 +16878,7 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" s="1" t="n">
-        <v>2857</v>
+        <v>9766</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>96</v>
@@ -16922,10 +16922,10 @@
         <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T226" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U226" s="2" t="s">
         <v>49</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" s="1" t="n">
-        <v>2858</v>
+        <v>9767</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>97</v>
@@ -16991,10 +16991,10 @@
         <v>363</v>
       </c>
       <c r="S227" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T227" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U227" s="2" t="s">
         <v>49</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" s="1" t="n">
-        <v>2859</v>
+        <v>9768</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>98</v>
@@ -17056,10 +17056,10 @@
         <v>1.5</v>
       </c>
       <c r="S228" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T228" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U228" s="2" t="s">
         <v>49</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" s="1" t="n">
-        <v>2860</v>
+        <v>9769</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>99</v>
@@ -17125,10 +17125,10 @@
         <v>363</v>
       </c>
       <c r="S229" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T229" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U229" s="2" t="s">
         <v>49</v>
@@ -17148,7 +17148,7 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" s="1" t="n">
-        <v>2861</v>
+        <v>9770</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>100</v>
@@ -17194,10 +17194,10 @@
         <v>363</v>
       </c>
       <c r="S230" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T230" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U230" s="2" t="s">
         <v>49</v>
@@ -17217,7 +17217,7 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" s="1" t="n">
-        <v>2862</v>
+        <v>9771</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>101</v>
@@ -17263,10 +17263,10 @@
         <v>372</v>
       </c>
       <c r="S231" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T231" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U231" s="2" t="s">
         <v>49</v>
@@ -17286,7 +17286,7 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" s="1" t="n">
-        <v>2863</v>
+        <v>9772</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>102</v>
@@ -17326,10 +17326,10 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T232" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U232" s="2" t="s">
         <v>49</v>
@@ -17349,7 +17349,7 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" s="1" t="n">
-        <v>2864</v>
+        <v>9773</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>103</v>
@@ -17391,10 +17391,10 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T233" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U233" s="2" t="s">
         <v>49</v>
@@ -17414,7 +17414,7 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" s="1" t="n">
-        <v>2865</v>
+        <v>9774</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>103</v>
@@ -17458,10 +17458,10 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T234" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U234" s="2" t="s">
         <v>49</v>
@@ -17481,7 +17481,7 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" s="1" t="n">
-        <v>2866</v>
+        <v>9775</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>104</v>
@@ -17521,10 +17521,10 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T235" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U235" s="2" t="s">
         <v>49</v>
@@ -17544,7 +17544,7 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" s="1" t="n">
-        <v>2867</v>
+        <v>9776</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>105</v>
@@ -17586,10 +17586,10 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T236" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U236" s="2" t="s">
         <v>49</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" s="1" t="n">
-        <v>2868</v>
+        <v>9777</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>106</v>
@@ -17651,10 +17651,10 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T237" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U237" s="2" t="s">
         <v>49</v>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" s="1" t="n">
-        <v>2869</v>
+        <v>9778</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>106</v>
@@ -17716,10 +17716,10 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T238" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U238" s="2" t="s">
         <v>49</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" s="1" t="n">
-        <v>2870</v>
+        <v>9779</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>106</v>
@@ -17781,10 +17781,10 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T239" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U239" s="2" t="s">
         <v>49</v>
@@ -17804,7 +17804,7 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" s="1" t="n">
-        <v>2871</v>
+        <v>9780</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>106</v>
@@ -17846,10 +17846,10 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T240" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U240" s="2" t="s">
         <v>49</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" s="1" t="n">
-        <v>2872</v>
+        <v>9781</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>107</v>
@@ -17911,10 +17911,10 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T241" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U241" s="2" t="s">
         <v>49</v>
@@ -17934,7 +17934,7 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" s="1" t="n">
-        <v>2873</v>
+        <v>9782</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>107</v>
@@ -17976,10 +17976,10 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T242" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U242" s="2" t="s">
         <v>49</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" s="1" t="n">
-        <v>2874</v>
+        <v>9783</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>107</v>
@@ -18041,10 +18041,10 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T243" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U243" s="2" t="s">
         <v>49</v>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" s="1" t="n">
-        <v>2875</v>
+        <v>9784</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>107</v>
@@ -18106,10 +18106,10 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T244" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U244" s="2" t="s">
         <v>49</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" s="1" t="n">
-        <v>2876</v>
+        <v>9785</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>108</v>
@@ -18171,10 +18171,10 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T245" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U245" s="2" t="s">
         <v>49</v>
@@ -18194,7 +18194,7 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" s="1" t="n">
-        <v>2877</v>
+        <v>9786</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>108</v>
@@ -18236,10 +18236,10 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T246" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U246" s="2" t="s">
         <v>49</v>
@@ -18259,7 +18259,7 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" s="1" t="n">
-        <v>2878</v>
+        <v>9787</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>109</v>
@@ -18301,10 +18301,10 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T247" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U247" s="2" t="s">
         <v>49</v>
@@ -18324,7 +18324,7 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" s="1" t="n">
-        <v>2879</v>
+        <v>9788</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>110</v>
@@ -18366,10 +18366,10 @@
         <v>4</v>
       </c>
       <c r="S248" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T248" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U248" s="2" t="s">
         <v>49</v>
@@ -18389,7 +18389,7 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" s="1" t="n">
-        <v>2880</v>
+        <v>9789</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>110</v>
@@ -18431,10 +18431,10 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T249" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U249" s="2" t="s">
         <v>49</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" s="1" t="n">
-        <v>2881</v>
+        <v>9790</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>110</v>
@@ -18498,10 +18498,10 @@
         <v>5</v>
       </c>
       <c r="S250" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T250" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U250" s="2" t="s">
         <v>49</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" s="1" t="n">
-        <v>2882</v>
+        <v>9791</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>110</v>
@@ -18565,10 +18565,10 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T251" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U251" s="2" t="s">
         <v>49</v>
@@ -18588,7 +18588,7 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" s="1" t="n">
-        <v>2883</v>
+        <v>9792</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>110</v>
@@ -18632,10 +18632,10 @@
         <v>5</v>
       </c>
       <c r="S252" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T252" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U252" s="2" t="s">
         <v>49</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" s="1" t="n">
-        <v>2884</v>
+        <v>9793</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>110</v>
@@ -18699,10 +18699,10 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T253" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U253" s="2" t="s">
         <v>49</v>
@@ -18722,7 +18722,7 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" s="1" t="n">
-        <v>2885</v>
+        <v>9794</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>110</v>
@@ -18766,10 +18766,10 @@
         <v>5</v>
       </c>
       <c r="S254" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T254" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U254" s="2" t="s">
         <v>49</v>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" s="1" t="n">
-        <v>2886</v>
+        <v>9795</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>110</v>
@@ -18831,10 +18831,10 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T255" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U255" s="2" t="s">
         <v>49</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" s="1" t="n">
-        <v>2887</v>
+        <v>9796</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>110</v>
@@ -18898,10 +18898,10 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T256" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U256" s="2" t="s">
         <v>49</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" s="1" t="n">
-        <v>2888</v>
+        <v>9797</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>111</v>
@@ -18963,10 +18963,10 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T257" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U257" s="2" t="s">
         <v>49</v>
@@ -18986,7 +18986,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" s="1" t="n">
-        <v>2889</v>
+        <v>9798</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>111</v>
@@ -19030,10 +19030,10 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T258" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U258" s="2" t="s">
         <v>49</v>
@@ -19053,7 +19053,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" s="1" t="n">
-        <v>2890</v>
+        <v>9799</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>111</v>
@@ -19097,10 +19097,10 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T259" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U259" s="2" t="s">
         <v>49</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" s="1" t="n">
-        <v>2891</v>
+        <v>9800</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>111</v>
@@ -19164,10 +19164,10 @@
         <v>2</v>
       </c>
       <c r="S260" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T260" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U260" s="2" t="s">
         <v>49</v>
@@ -19187,7 +19187,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" s="1" t="n">
-        <v>2892</v>
+        <v>9801</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>111</v>
@@ -19231,10 +19231,10 @@
         <v>3</v>
       </c>
       <c r="S261" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T261" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U261" s="2" t="s">
         <v>49</v>
@@ -19254,7 +19254,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" s="1" t="n">
-        <v>2893</v>
+        <v>9802</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>111</v>
@@ -19298,10 +19298,10 @@
         <v>3</v>
       </c>
       <c r="S262" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T262" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U262" s="2" t="s">
         <v>49</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" s="1" t="n">
-        <v>2894</v>
+        <v>9803</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>111</v>
@@ -19365,10 +19365,10 @@
         <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T263" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U263" s="2" t="s">
         <v>49</v>
@@ -19388,7 +19388,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" s="1" t="n">
-        <v>2895</v>
+        <v>9804</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>112</v>
@@ -19430,10 +19430,10 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T264" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U264" s="2" t="s">
         <v>49</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" s="1" t="n">
-        <v>2896</v>
+        <v>9805</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>112</v>
@@ -19497,10 +19497,10 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T265" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U265" s="2" t="s">
         <v>49</v>
@@ -19520,7 +19520,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" s="1" t="n">
-        <v>2897</v>
+        <v>9806</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>112</v>
@@ -19564,10 +19564,10 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T266" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U266" s="2" t="s">
         <v>49</v>
@@ -19587,7 +19587,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" s="1" t="n">
-        <v>2898</v>
+        <v>9807</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>112</v>
@@ -19631,10 +19631,10 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T267" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U267" s="2" t="s">
         <v>49</v>
@@ -19654,7 +19654,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" s="1" t="n">
-        <v>2899</v>
+        <v>9808</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>112</v>
@@ -19698,10 +19698,10 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T268" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U268" s="2" t="s">
         <v>49</v>
@@ -19721,7 +19721,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" s="1" t="n">
-        <v>2900</v>
+        <v>9809</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>112</v>
@@ -19765,10 +19765,10 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T269" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U269" s="2" t="s">
         <v>49</v>
@@ -19788,7 +19788,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" s="1" t="n">
-        <v>2901</v>
+        <v>9810</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>112</v>
@@ -19832,10 +19832,10 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T270" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U270" s="2" t="s">
         <v>49</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" s="1" t="n">
-        <v>2902</v>
+        <v>9811</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>113</v>
@@ -19897,10 +19897,10 @@
         <v>2</v>
       </c>
       <c r="S271" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T271" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U271" s="2" t="s">
         <v>49</v>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" s="1" t="n">
-        <v>2903</v>
+        <v>9812</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>113</v>
@@ -19964,10 +19964,10 @@
         <v>2</v>
       </c>
       <c r="S272" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U272" s="2" t="s">
         <v>49</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" s="1" t="n">
-        <v>2904</v>
+        <v>9813</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>113</v>
@@ -20031,10 +20031,10 @@
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T273" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U273" s="2" t="s">
         <v>49</v>
@@ -20054,7 +20054,7 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" s="1" t="n">
-        <v>2905</v>
+        <v>9814</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>114</v>
@@ -20096,10 +20096,10 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T274" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U274" s="2" t="s">
         <v>49</v>
@@ -20119,7 +20119,7 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" s="1" t="n">
-        <v>2906</v>
+        <v>9815</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>114</v>
@@ -20163,10 +20163,10 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T275" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U275" s="2" t="s">
         <v>49</v>
@@ -20186,7 +20186,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" s="1" t="n">
-        <v>2907</v>
+        <v>9816</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>114</v>
@@ -20230,10 +20230,10 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T276" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U276" s="2" t="s">
         <v>49</v>
@@ -20253,7 +20253,7 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" s="1" t="n">
-        <v>2908</v>
+        <v>9817</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>115</v>
@@ -20298,10 +20298,10 @@
         <v>226</v>
       </c>
       <c r="S277" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T277" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U277" s="2" t="s">
         <v>49</v>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" s="1" t="n">
-        <v>2909</v>
+        <v>9818</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>116</v>
@@ -20366,10 +20366,10 @@
         <v>226</v>
       </c>
       <c r="S278" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T278" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U278" s="2" t="s">
         <v>49</v>
@@ -20389,7 +20389,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" s="1" t="n">
-        <v>2910</v>
+        <v>9819</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>116</v>
@@ -20431,10 +20431,10 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T279" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U279" s="2" t="s">
         <v>49</v>
@@ -20454,7 +20454,7 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" s="1" t="n">
-        <v>2911</v>
+        <v>9820</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>117</v>
@@ -20496,10 +20496,10 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T280" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U280" s="2" t="s">
         <v>49</v>
@@ -20519,7 +20519,7 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" s="1" t="n">
-        <v>2912</v>
+        <v>9821</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>117</v>
@@ -20561,10 +20561,10 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T281" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U281" s="2" t="s">
         <v>49</v>
@@ -20584,7 +20584,7 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" s="1" t="n">
-        <v>2913</v>
+        <v>9822</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>118</v>
@@ -20626,10 +20626,10 @@
         <v>4</v>
       </c>
       <c r="S282" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T282" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U282" s="2" t="s">
         <v>49</v>
@@ -20649,7 +20649,7 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" s="1" t="n">
-        <v>2914</v>
+        <v>9823</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>118</v>
@@ -20693,10 +20693,10 @@
         <v>5</v>
       </c>
       <c r="S283" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T283" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U283" s="2" t="s">
         <v>49</v>
@@ -20716,7 +20716,7 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" s="1" t="n">
-        <v>2915</v>
+        <v>9824</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>118</v>
@@ -20760,10 +20760,10 @@
         <v>5</v>
       </c>
       <c r="S284" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T284" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U284" s="2" t="s">
         <v>49</v>
@@ -20783,7 +20783,7 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" s="1" t="n">
-        <v>2916</v>
+        <v>9825</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>118</v>
@@ -20827,10 +20827,10 @@
         <v>5</v>
       </c>
       <c r="S285" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T285" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U285" s="2" t="s">
         <v>49</v>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" s="1" t="n">
-        <v>2917</v>
+        <v>9826</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>118</v>
@@ -20894,10 +20894,10 @@
         <v>5</v>
       </c>
       <c r="S286" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T286" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U286" s="2" t="s">
         <v>49</v>
@@ -20917,7 +20917,7 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" s="1" t="n">
-        <v>2918</v>
+        <v>9827</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>118</v>
@@ -20961,10 +20961,10 @@
         <v>5</v>
       </c>
       <c r="S287" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T287" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U287" s="2" t="s">
         <v>49</v>
@@ -20984,7 +20984,7 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" s="1" t="n">
-        <v>2919</v>
+        <v>9828</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>118</v>
@@ -21026,10 +21026,10 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T288" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U288" s="2" t="s">
         <v>49</v>
@@ -21049,7 +21049,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" s="1" t="n">
-        <v>2920</v>
+        <v>9829</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>118</v>
@@ -21093,10 +21093,10 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T289" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U289" s="2" t="s">
         <v>49</v>
@@ -21116,7 +21116,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" s="1" t="n">
-        <v>2921</v>
+        <v>9830</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>118</v>
@@ -21158,10 +21158,10 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T290" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U290" s="2" t="s">
         <v>49</v>
@@ -21181,7 +21181,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" s="1" t="n">
-        <v>2922</v>
+        <v>9831</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>118</v>
@@ -21225,10 +21225,10 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T291" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U291" s="2" t="s">
         <v>49</v>
@@ -21248,7 +21248,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" s="1" t="n">
-        <v>2923</v>
+        <v>9832</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>119</v>
@@ -21290,10 +21290,10 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T292" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U292" s="2" t="s">
         <v>49</v>
@@ -21313,7 +21313,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" s="1" t="n">
-        <v>2924</v>
+        <v>9833</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>119</v>
@@ -21357,10 +21357,10 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T293" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U293" s="2" t="s">
         <v>49</v>
@@ -21380,7 +21380,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" s="1" t="n">
-        <v>2925</v>
+        <v>9834</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>119</v>
@@ -21422,10 +21422,10 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T294" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U294" s="2" t="s">
         <v>49</v>
@@ -21445,7 +21445,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" s="1" t="n">
-        <v>2926</v>
+        <v>9835</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>119</v>
@@ -21487,10 +21487,10 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T295" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U295" s="2" t="s">
         <v>49</v>
@@ -21510,7 +21510,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" s="1" t="n">
-        <v>2927</v>
+        <v>9836</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>119</v>
@@ -21552,10 +21552,10 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T296" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U296" s="2" t="s">
         <v>49</v>
@@ -21575,7 +21575,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" s="1" t="n">
-        <v>2928</v>
+        <v>9837</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>119</v>
@@ -21617,10 +21617,10 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U297" s="2" t="s">
         <v>49</v>
@@ -21640,7 +21640,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" s="1" t="n">
-        <v>2929</v>
+        <v>9838</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>119</v>
@@ -21684,10 +21684,10 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T298" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U298" s="2" t="s">
         <v>49</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" s="1" t="n">
-        <v>2930</v>
+        <v>9839</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>119</v>
@@ -21749,10 +21749,10 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T299" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U299" s="2" t="s">
         <v>49</v>
@@ -21772,7 +21772,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" s="1" t="n">
-        <v>2931</v>
+        <v>9840</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>119</v>
@@ -21814,10 +21814,10 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T300" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U300" s="2" t="s">
         <v>49</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" s="1" t="n">
-        <v>2932</v>
+        <v>9841</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>119</v>
@@ -21879,10 +21879,10 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T301" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U301" s="2" t="s">
         <v>49</v>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" s="1" t="n">
-        <v>2933</v>
+        <v>9842</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>120</v>
@@ -21944,10 +21944,10 @@
         <v>1.5</v>
       </c>
       <c r="S302" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T302" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U302" s="2" t="s">
         <v>49</v>
@@ -21967,7 +21967,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" s="1" t="n">
-        <v>2934</v>
+        <v>9843</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>120</v>
@@ -22014,10 +22014,10 @@
         <v>443</v>
       </c>
       <c r="S303" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T303" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U303" s="2" t="s">
         <v>49</v>
@@ -22037,7 +22037,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" s="1" t="n">
-        <v>2935</v>
+        <v>9844</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>121</v>
@@ -22081,10 +22081,10 @@
         <v>1.5</v>
       </c>
       <c r="S304" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T304" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U304" s="2" t="s">
         <v>49</v>
@@ -22104,7 +22104,7 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" s="1" t="n">
-        <v>2936</v>
+        <v>9845</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>121</v>
@@ -22148,10 +22148,10 @@
         <v>1.5</v>
       </c>
       <c r="S305" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T305" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U305" s="2" t="s">
         <v>49</v>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" s="1" t="n">
-        <v>2937</v>
+        <v>9846</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>122</v>
@@ -22215,10 +22215,10 @@
         <v>1.5</v>
       </c>
       <c r="S306" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T306" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U306" s="2" t="s">
         <v>49</v>
@@ -22238,7 +22238,7 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" s="1" t="n">
-        <v>2938</v>
+        <v>9847</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>122</v>
@@ -22282,10 +22282,10 @@
         <v>1.5</v>
       </c>
       <c r="S307" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T307" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U307" s="2" t="s">
         <v>49</v>
@@ -22305,7 +22305,7 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" s="1" t="n">
-        <v>2939</v>
+        <v>9848</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>123</v>
@@ -22347,10 +22347,10 @@
         <v>1.5</v>
       </c>
       <c r="S308" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T308" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U308" s="2" t="s">
         <v>49</v>
@@ -22370,7 +22370,7 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" s="1" t="n">
-        <v>2940</v>
+        <v>9849</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>123</v>
@@ -22417,10 +22417,10 @@
         <v>443</v>
       </c>
       <c r="S309" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T309" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U309" s="2" t="s">
         <v>49</v>
@@ -22440,7 +22440,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" s="1" t="n">
-        <v>2941</v>
+        <v>9850</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>123</v>
@@ -22484,10 +22484,10 @@
         <v>1.5</v>
       </c>
       <c r="S310" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T310" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U310" s="2" t="s">
         <v>49</v>
@@ -22507,7 +22507,7 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" s="1" t="n">
-        <v>2942</v>
+        <v>9851</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>123</v>
@@ -22551,10 +22551,10 @@
         <v>1.5</v>
       </c>
       <c r="S311" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T311" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U311" s="2" t="s">
         <v>49</v>
@@ -22574,7 +22574,7 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" s="1" t="n">
-        <v>2943</v>
+        <v>9852</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>123</v>
@@ -22618,10 +22618,10 @@
         <v>1.5</v>
       </c>
       <c r="S312" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T312" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U312" s="2" t="s">
         <v>49</v>
@@ -22641,7 +22641,7 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" s="1" t="n">
-        <v>2944</v>
+        <v>9853</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>124</v>
@@ -22685,10 +22685,10 @@
         <v>1.5</v>
       </c>
       <c r="S313" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T313" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U313" s="2" t="s">
         <v>49</v>
@@ -22708,7 +22708,7 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" s="1" t="n">
-        <v>2945</v>
+        <v>9854</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>124</v>
@@ -22750,10 +22750,10 @@
         <v>1.5</v>
       </c>
       <c r="S314" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T314" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U314" s="2" t="s">
         <v>49</v>
@@ -22773,7 +22773,7 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" s="1" t="n">
-        <v>2946</v>
+        <v>9855</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>125</v>
@@ -22815,10 +22815,10 @@
         <v>1.5</v>
       </c>
       <c r="S315" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T315" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U315" s="2" t="s">
         <v>49</v>
@@ -22838,7 +22838,7 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" s="1" t="n">
-        <v>2947</v>
+        <v>9856</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>125</v>
@@ -22882,10 +22882,10 @@
         <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T316" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U316" s="2" t="s">
         <v>49</v>
@@ -22905,7 +22905,7 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" s="1" t="n">
-        <v>2948</v>
+        <v>9857</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>126</v>
@@ -22947,10 +22947,10 @@
         <v>1.5</v>
       </c>
       <c r="S317" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T317" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U317" s="2" t="s">
         <v>49</v>
@@ -22970,7 +22970,7 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" s="1" t="n">
-        <v>2949</v>
+        <v>9858</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>126</v>
@@ -23015,10 +23015,10 @@
         <v>239</v>
       </c>
       <c r="S318" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T318" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U318" s="2" t="s">
         <v>49</v>
@@ -23038,7 +23038,7 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" s="1" t="n">
-        <v>2950</v>
+        <v>9859</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>127</v>
@@ -23080,10 +23080,10 @@
         <v>1.5</v>
       </c>
       <c r="S319" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T319" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U319" s="2" t="s">
         <v>49</v>
@@ -23103,7 +23103,7 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" s="1" t="n">
-        <v>2951</v>
+        <v>9860</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>128</v>
@@ -23145,10 +23145,10 @@
         <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T320" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U320" s="2" t="s">
         <v>49</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" s="1" t="n">
-        <v>2952</v>
+        <v>9861</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>128</v>
@@ -23215,10 +23215,10 @@
         <v>443</v>
       </c>
       <c r="S321" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T321" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U321" s="2" t="s">
         <v>49</v>
@@ -23238,7 +23238,7 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" s="1" t="n">
-        <v>2953</v>
+        <v>9862</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>129</v>
@@ -23282,10 +23282,10 @@
         <v>1.5</v>
       </c>
       <c r="S322" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T322" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U322" s="2" t="s">
         <v>49</v>
@@ -23305,7 +23305,7 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" s="1" t="n">
-        <v>2954</v>
+        <v>9863</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>129</v>
@@ -23349,10 +23349,10 @@
         <v>1.5</v>
       </c>
       <c r="S323" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T323" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U323" s="2" t="s">
         <v>49</v>
@@ -23372,7 +23372,7 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" s="1" t="n">
-        <v>2955</v>
+        <v>9864</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>130</v>
@@ -23416,10 +23416,10 @@
         <v>1.5</v>
       </c>
       <c r="S324" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U324" s="2" t="s">
         <v>49</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" s="1" t="n">
-        <v>2956</v>
+        <v>9865</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>130</v>
@@ -23483,10 +23483,10 @@
         <v>1.5</v>
       </c>
       <c r="S325" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T325" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U325" s="2" t="s">
         <v>49</v>
@@ -23506,7 +23506,7 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" s="1" t="n">
-        <v>2957</v>
+        <v>9866</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>131</v>
@@ -23548,10 +23548,10 @@
         <v>1.5</v>
       </c>
       <c r="S326" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T326" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U326" s="2" t="s">
         <v>49</v>
@@ -23571,7 +23571,7 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" s="1" t="n">
-        <v>2958</v>
+        <v>9867</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>131</v>
@@ -23618,10 +23618,10 @@
         <v>443</v>
       </c>
       <c r="S327" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T327" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U327" s="2" t="s">
         <v>49</v>
@@ -23641,7 +23641,7 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" s="1" t="n">
-        <v>2959</v>
+        <v>9868</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>132</v>
@@ -23685,10 +23685,10 @@
         <v>1.5</v>
       </c>
       <c r="S328" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U328" s="2" t="s">
         <v>49</v>
@@ -23708,7 +23708,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" s="1" t="n">
-        <v>2960</v>
+        <v>9869</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>133</v>
@@ -23752,10 +23752,10 @@
         <v>1.5</v>
       </c>
       <c r="S329" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T329" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U329" s="2" t="s">
         <v>49</v>
@@ -23775,7 +23775,7 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" s="1" t="n">
-        <v>2961</v>
+        <v>9870</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>133</v>
@@ -23819,10 +23819,10 @@
         <v>1.5</v>
       </c>
       <c r="S330" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T330" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U330" s="2" t="s">
         <v>49</v>
